--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -7,93 +7,114 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2023" sheetId="3" r:id="rId3"/>
-    <sheet name="2024" sheetId="4" r:id="rId4"/>
-    <sheet name="2025" sheetId="5" r:id="rId5"/>
-    <sheet name="2026" sheetId="6" r:id="rId6"/>
-    <sheet name="2027" sheetId="7" r:id="rId7"/>
-    <sheet name="2028" sheetId="8" r:id="rId8"/>
-    <sheet name="2029" sheetId="9" r:id="rId9"/>
-    <sheet name="2030" sheetId="10" r:id="rId10"/>
-    <sheet name="2031" sheetId="11" r:id="rId11"/>
-    <sheet name="2032" sheetId="12" r:id="rId12"/>
-    <sheet name="2033" sheetId="13" r:id="rId13"/>
-    <sheet name="2034" sheetId="14" r:id="rId14"/>
-    <sheet name="2035" sheetId="15" r:id="rId15"/>
-    <sheet name="2036" sheetId="16" r:id="rId16"/>
-    <sheet name="2037" sheetId="17" r:id="rId17"/>
-    <sheet name="2038" sheetId="18" r:id="rId18"/>
-    <sheet name="2039" sheetId="19" r:id="rId19"/>
-    <sheet name="2040" sheetId="20" r:id="rId20"/>
-    <sheet name="2041" sheetId="21" r:id="rId21"/>
-    <sheet name="2042" sheetId="22" r:id="rId22"/>
-    <sheet name="2043" sheetId="23" r:id="rId23"/>
-    <sheet name="2044" sheetId="24" r:id="rId24"/>
-    <sheet name="2045" sheetId="25" r:id="rId25"/>
-    <sheet name="2046" sheetId="26" r:id="rId26"/>
-    <sheet name="2047" sheetId="27" r:id="rId27"/>
-    <sheet name="2048" sheetId="28" r:id="rId28"/>
-    <sheet name="2049" sheetId="29" r:id="rId29"/>
-    <sheet name="2050" sheetId="30" r:id="rId30"/>
-    <sheet name="2051" sheetId="31" r:id="rId31"/>
-    <sheet name="2052" sheetId="32" r:id="rId32"/>
-    <sheet name="2053" sheetId="33" r:id="rId33"/>
-    <sheet name="2054" sheetId="34" r:id="rId34"/>
-    <sheet name="2055" sheetId="35" r:id="rId35"/>
-    <sheet name="2056" sheetId="36" r:id="rId36"/>
-    <sheet name="2057" sheetId="37" r:id="rId37"/>
-    <sheet name="2058" sheetId="38" r:id="rId38"/>
-    <sheet name="2059" sheetId="39" r:id="rId39"/>
-    <sheet name="2060" sheetId="40" r:id="rId40"/>
-    <sheet name="2061" sheetId="41" r:id="rId41"/>
-    <sheet name="2062" sheetId="42" r:id="rId42"/>
-    <sheet name="2063" sheetId="43" r:id="rId43"/>
-    <sheet name="2064" sheetId="44" r:id="rId44"/>
-    <sheet name="2065" sheetId="45" r:id="rId45"/>
-    <sheet name="2066" sheetId="46" r:id="rId46"/>
-    <sheet name="2067" sheetId="47" r:id="rId47"/>
-    <sheet name="2068" sheetId="48" r:id="rId48"/>
-    <sheet name="2069" sheetId="49" r:id="rId49"/>
-    <sheet name="2070" sheetId="50" r:id="rId50"/>
-    <sheet name="2071" sheetId="51" r:id="rId51"/>
-    <sheet name="2072" sheetId="52" r:id="rId52"/>
-    <sheet name="2073" sheetId="53" r:id="rId53"/>
-    <sheet name="2074" sheetId="54" r:id="rId54"/>
-    <sheet name="2075" sheetId="55" r:id="rId55"/>
-    <sheet name="2076" sheetId="56" r:id="rId56"/>
-    <sheet name="2077" sheetId="57" r:id="rId57"/>
-    <sheet name="2078" sheetId="58" r:id="rId58"/>
-    <sheet name="2079" sheetId="59" r:id="rId59"/>
-    <sheet name="2080" sheetId="60" r:id="rId60"/>
-    <sheet name="2081" sheetId="61" r:id="rId61"/>
-    <sheet name="2082" sheetId="62" r:id="rId62"/>
-    <sheet name="2083" sheetId="63" r:id="rId63"/>
-    <sheet name="2084" sheetId="64" r:id="rId64"/>
-    <sheet name="2085" sheetId="65" r:id="rId65"/>
-    <sheet name="2086" sheetId="66" r:id="rId66"/>
-    <sheet name="2087" sheetId="67" r:id="rId67"/>
-    <sheet name="2088" sheetId="68" r:id="rId68"/>
-    <sheet name="2089" sheetId="69" r:id="rId69"/>
-    <sheet name="2090" sheetId="70" r:id="rId70"/>
-    <sheet name="2091" sheetId="71" r:id="rId71"/>
-    <sheet name="2092" sheetId="72" r:id="rId72"/>
-    <sheet name="2093" sheetId="73" r:id="rId73"/>
-    <sheet name="2094" sheetId="74" r:id="rId74"/>
-    <sheet name="2095" sheetId="75" r:id="rId75"/>
-    <sheet name="2096" sheetId="76" r:id="rId76"/>
-    <sheet name="2097" sheetId="77" r:id="rId77"/>
-    <sheet name="2098" sheetId="78" r:id="rId78"/>
-    <sheet name="2099" sheetId="79" r:id="rId79"/>
-    <sheet name="2100" sheetId="80" r:id="rId80"/>
+    <sheet name="2000" sheetId="1" r:id="rId1"/>
+    <sheet name="2001" sheetId="2" r:id="rId2"/>
+    <sheet name="2002" sheetId="3" r:id="rId3"/>
+    <sheet name="2003" sheetId="4" r:id="rId4"/>
+    <sheet name="2004" sheetId="5" r:id="rId5"/>
+    <sheet name="2005" sheetId="6" r:id="rId6"/>
+    <sheet name="2006" sheetId="7" r:id="rId7"/>
+    <sheet name="2007" sheetId="8" r:id="rId8"/>
+    <sheet name="2008" sheetId="9" r:id="rId9"/>
+    <sheet name="2009" sheetId="10" r:id="rId10"/>
+    <sheet name="2010" sheetId="11" r:id="rId11"/>
+    <sheet name="2011" sheetId="12" r:id="rId12"/>
+    <sheet name="2012" sheetId="13" r:id="rId13"/>
+    <sheet name="2013" sheetId="14" r:id="rId14"/>
+    <sheet name="2014" sheetId="15" r:id="rId15"/>
+    <sheet name="2015" sheetId="16" r:id="rId16"/>
+    <sheet name="2016" sheetId="17" r:id="rId17"/>
+    <sheet name="2017" sheetId="18" r:id="rId18"/>
+    <sheet name="2018" sheetId="19" r:id="rId19"/>
+    <sheet name="2019" sheetId="20" r:id="rId20"/>
+    <sheet name="2020" sheetId="21" r:id="rId21"/>
+    <sheet name="2021" sheetId="22" r:id="rId22"/>
+    <sheet name="2022" sheetId="23" r:id="rId23"/>
+    <sheet name="2023" sheetId="24" r:id="rId24"/>
+    <sheet name="2024" sheetId="25" r:id="rId25"/>
+    <sheet name="2025" sheetId="26" r:id="rId26"/>
+    <sheet name="2026" sheetId="27" r:id="rId27"/>
+    <sheet name="2027" sheetId="28" r:id="rId28"/>
+    <sheet name="2028" sheetId="29" r:id="rId29"/>
+    <sheet name="2029" sheetId="30" r:id="rId30"/>
+    <sheet name="2030" sheetId="31" r:id="rId31"/>
+    <sheet name="2031" sheetId="32" r:id="rId32"/>
+    <sheet name="2032" sheetId="33" r:id="rId33"/>
+    <sheet name="2033" sheetId="34" r:id="rId34"/>
+    <sheet name="2034" sheetId="35" r:id="rId35"/>
+    <sheet name="2035" sheetId="36" r:id="rId36"/>
+    <sheet name="2036" sheetId="37" r:id="rId37"/>
+    <sheet name="2037" sheetId="38" r:id="rId38"/>
+    <sheet name="2038" sheetId="39" r:id="rId39"/>
+    <sheet name="2039" sheetId="40" r:id="rId40"/>
+    <sheet name="2040" sheetId="41" r:id="rId41"/>
+    <sheet name="2041" sheetId="42" r:id="rId42"/>
+    <sheet name="2042" sheetId="43" r:id="rId43"/>
+    <sheet name="2043" sheetId="44" r:id="rId44"/>
+    <sheet name="2044" sheetId="45" r:id="rId45"/>
+    <sheet name="2045" sheetId="46" r:id="rId46"/>
+    <sheet name="2046" sheetId="47" r:id="rId47"/>
+    <sheet name="2047" sheetId="48" r:id="rId48"/>
+    <sheet name="2048" sheetId="49" r:id="rId49"/>
+    <sheet name="2049" sheetId="50" r:id="rId50"/>
+    <sheet name="2050" sheetId="51" r:id="rId51"/>
+    <sheet name="2051" sheetId="52" r:id="rId52"/>
+    <sheet name="2052" sheetId="53" r:id="rId53"/>
+    <sheet name="2053" sheetId="54" r:id="rId54"/>
+    <sheet name="2054" sheetId="55" r:id="rId55"/>
+    <sheet name="2055" sheetId="56" r:id="rId56"/>
+    <sheet name="2056" sheetId="57" r:id="rId57"/>
+    <sheet name="2057" sheetId="58" r:id="rId58"/>
+    <sheet name="2058" sheetId="59" r:id="rId59"/>
+    <sheet name="2059" sheetId="60" r:id="rId60"/>
+    <sheet name="2060" sheetId="61" r:id="rId61"/>
+    <sheet name="2061" sheetId="62" r:id="rId62"/>
+    <sheet name="2062" sheetId="63" r:id="rId63"/>
+    <sheet name="2063" sheetId="64" r:id="rId64"/>
+    <sheet name="2064" sheetId="65" r:id="rId65"/>
+    <sheet name="2065" sheetId="66" r:id="rId66"/>
+    <sheet name="2066" sheetId="67" r:id="rId67"/>
+    <sheet name="2067" sheetId="68" r:id="rId68"/>
+    <sheet name="2068" sheetId="69" r:id="rId69"/>
+    <sheet name="2069" sheetId="70" r:id="rId70"/>
+    <sheet name="2070" sheetId="71" r:id="rId71"/>
+    <sheet name="2071" sheetId="72" r:id="rId72"/>
+    <sheet name="2072" sheetId="73" r:id="rId73"/>
+    <sheet name="2073" sheetId="74" r:id="rId74"/>
+    <sheet name="2074" sheetId="75" r:id="rId75"/>
+    <sheet name="2075" sheetId="76" r:id="rId76"/>
+    <sheet name="2076" sheetId="77" r:id="rId77"/>
+    <sheet name="2077" sheetId="78" r:id="rId78"/>
+    <sheet name="2078" sheetId="79" r:id="rId79"/>
+    <sheet name="2079" sheetId="80" r:id="rId80"/>
+    <sheet name="2080" sheetId="81" r:id="rId81"/>
+    <sheet name="2081" sheetId="82" r:id="rId82"/>
+    <sheet name="2082" sheetId="83" r:id="rId83"/>
+    <sheet name="2083" sheetId="84" r:id="rId84"/>
+    <sheet name="2084" sheetId="85" r:id="rId85"/>
+    <sheet name="2085" sheetId="86" r:id="rId86"/>
+    <sheet name="2086" sheetId="87" r:id="rId87"/>
+    <sheet name="2087" sheetId="88" r:id="rId88"/>
+    <sheet name="2088" sheetId="89" r:id="rId89"/>
+    <sheet name="2089" sheetId="90" r:id="rId90"/>
+    <sheet name="2090" sheetId="91" r:id="rId91"/>
+    <sheet name="2091" sheetId="92" r:id="rId92"/>
+    <sheet name="2092" sheetId="93" r:id="rId93"/>
+    <sheet name="2093" sheetId="94" r:id="rId94"/>
+    <sheet name="2094" sheetId="95" r:id="rId95"/>
+    <sheet name="2095" sheetId="96" r:id="rId96"/>
+    <sheet name="2096" sheetId="97" r:id="rId97"/>
+    <sheet name="2097" sheetId="98" r:id="rId98"/>
+    <sheet name="2098" sheetId="99" r:id="rId99"/>
+    <sheet name="2099" sheetId="100" r:id="rId100"/>
+    <sheet name="2100" sheetId="101" r:id="rId101"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="6">
   <si>
     <t>FD</t>
   </si>
@@ -107,10 +128,10 @@
     <t>PV</t>
   </si>
   <si>
-    <t>Offshore wind</t>
+    <t>Onshore wind</t>
   </si>
   <si>
-    <t>Onshore wind</t>
+    <t>Offshore wind</t>
   </si>
 </sst>
 </file>
@@ -490,6 +511,902 @@
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25937846378.80515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>17980061658.39883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1377486416.223807</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25632527377.14355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>8327382229.635254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1546625348.004944</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25419432123.30664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7281778596.723877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1356721554.657715</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>54024300930.63694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13245593686.38689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1729281599.856736</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>81397076383.76286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14164423972.55055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>535940463.6438637</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>47738153050.95908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15179251962.60831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1316954502.168335</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>23792033748.98618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12469164548.02945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4284928384.359999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14496798967.61572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15231762535.09015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2265418278.962328</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13624002982.41858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13315150093.65567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>11327288125.82935</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9604790170.775726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13702331738.63312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5279288345.264816</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7790778600.763855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13839959061.69427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6118531120.062958</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10127035980.03432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9118881992.328369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7032820688.236168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>407753480.198209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7846528544.909435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>37117897.44300002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18616429154.1256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11095645906.34433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4982516401.119667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16242725542.94383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>8929337677.076752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6793235155.241112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>20476812366.90601</v>
       </c>
     </row>
@@ -500,29 +1417,533 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12411532548.85339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1449430787.146317</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12411532548.85339</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25822499810.69904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>16862311989.0195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2362718826.584381</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>170309508834.5392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>43210239597.37207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7677268610.170937</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>170529340787.2313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>44096889369.37411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7760554900.256691</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>170773795074.5293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>42843028251.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7781610991.801331</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>542765522518.8086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132070732640.2859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24373807581.61069</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>543032199831.7322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132352982916.6697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24190911824.9951</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>543289653666.8403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132582343571.7544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24346973795.30504</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>344203163.7569749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9671167627.441425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>676370575.6279999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>543521823109.981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132693524939.0912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24565826082.44305</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -556,29 +1977,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>132656338131.782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>24602135669.79718</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132656338131.782</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -612,29 +2033,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>118745130172.0404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22118681370.61719</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>118745130172.0404</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -668,29 +2089,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>118800924972.3445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22169736450.10083</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>118800924972.3445</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -724,29 +2145,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117690639476.2842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22032864100.5658</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117690639476.2842</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -780,29 +2201,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117504858791.2717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22085133682.8027</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117504858791.2717</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -836,29 +2257,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117906713844.1238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22765110331.78131</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117906713844.1238</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -892,29 +2313,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14431842134.10205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4210544775.0224</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14431842134.10205</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -948,29 +2369,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14686468858.92773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4230604119.594238</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14686468858.92773</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1004,29 +2425,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14415344275.98975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4121489969.781738</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14415344275.98975</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>971097149.2381296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7676332671.315521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>863609747.1737996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1060,85 +2537,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14078346928.2373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2444831447.661865</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14078346928.2373</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>25822499810.69904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2362718826.584381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16862311989.0195</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1172,29 +2593,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13814853014.10962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2056751996.938904</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13814853014.10962</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1250,7 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1284,29 +2705,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>1072354107.567871</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1340,29 +2761,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>3054804428.112305</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1396,29 +2817,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>6432388108.742188</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1452,29 +2873,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11215630984.82275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1175507534.411072</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11215630984.82275</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1508,29 +2929,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15065369164.2522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2883725455.154846</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15065369164.2522</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1564,29 +2985,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16500172465.20337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3173400352.655579</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16500172465.20337</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1620,29 +3041,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>24176974737.93823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4555703606.829712</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>24176974737.93823</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2894024570.37797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10163621845.63424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>103930112.8404005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1676,85 +3153,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>31909799967.84473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>5940815413.478638</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>31909799967.84473</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>170309508834.5392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7677268610.170937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>43210239597.37207</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1788,29 +3209,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16737401072.43066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3090818148.980225</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16737401072.43066</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1844,29 +3265,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>1480904541.851562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>335651944.8779907</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1480904541.851562</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1922,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1978,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2034,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2090,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2146,7 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2180,29 +3601,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>5405633516.099121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1268213599.615479</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5405633516.099121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2258,7 +3679,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3986219445.466927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9696589980.632721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2314,63 +3791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>170529340787.2313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7760554900.256691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>44096889369.37411</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2426,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2460,29 +3881,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13973540626.73096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2125313326.440918</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13973540626.73096</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2516,29 +3937,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14405828349.78223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2045588982.733215</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14405828349.78223</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2572,29 +3993,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12770583420.40674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2037027902.702026</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12770583420.40674</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2628,29 +4049,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12105638017.61401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2217733902.103699</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12105638017.61401</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2684,29 +4105,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15352430105.49146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2715711935.365112</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15352430105.49146</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2740,29 +4161,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16609749045.48438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2837302274.129761</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16609749045.48438</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2796,29 +4217,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17685138273.70386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3185206867.864075</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17685138273.70386</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2852,29 +4273,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>18088744672.06909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3594882266.573975</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>18088744672.06909</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3868290476.759933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11614231857.3879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>445414769.3159997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2908,85 +4385,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17833119822.27026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3695257456.58313</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17833119822.27026</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>170773795074.5293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7781610991.801331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>42843028251.3125</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3020,29 +4441,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17476245189.04736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3411996439.107971</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17476245189.04736</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3076,29 +4497,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15109046015.60547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2788412426.726135</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15109046015.60547</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3132,29 +4553,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10882579244.64722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1987927681.189026</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10882579244.64722</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3188,29 +4609,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>4670912897.390381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>853262816.3869629</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4670912897.390381</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3244,29 +4665,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>4300580468.810059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>797928682.8431396</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4300580468.810059</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3300,29 +4721,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9202199763.266113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1696109934.150391</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9202199763.266113</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3356,29 +4777,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11180682506.14941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2063826672.208191</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11180682506.14941</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3412,29 +4833,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11757499438.39331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2185073654.493103</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11757499438.39331</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3468,29 +4889,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12039544898.01953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2249855545.025391</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12039544898.01953</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7210999170.734329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13346239590.20581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>449538980.1430068</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3524,85 +5001,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12423797094.58765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2335953053.268127</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12423797094.58765</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>542765522518.8086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24373807581.61069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132070732640.2859</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3636,29 +5057,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12312334566.71851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2297153085.545471</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12312334566.71851</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3692,29 +5113,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10290899696.86841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1838243780.103577</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10290899696.86841</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3748,29 +5169,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11384177516.71484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2005907329.251343</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11384177516.71484</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3804,29 +5225,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14129360421.45337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2490512637.045837</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14129360421.45337</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3860,29 +5281,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15419190166.89478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2700058523.061218</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15419190166.89478</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3916,29 +5337,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12905997713.53442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2359946540.070007</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12905997713.53442</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3972,29 +5393,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9479080097.230469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1889535760.641357</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9479080097.230469</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4028,29 +5449,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10009142630.73291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1983440550.584229</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10009142630.73291</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4084,29 +5505,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10941193270.92554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2055104996.74762</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10941193270.92554</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>22035714670.36804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11317587635.03888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>602134780.7422447</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4140,85 +5617,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10786128253.16821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2027181018.082214</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10786128253.16821</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>543032199831.7322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24190911824.9951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132352982916.6697</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4252,29 +5673,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10116978874.71973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1997455895.579102</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10116978874.71973</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4308,29 +5729,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8280099699.258545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1679867416.373779</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8280099699.258545</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4364,29 +5785,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>7567367492.593994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1436110285.795776</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7567367492.593994</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4420,29 +5841,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6668585169.146484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1140651970.374207</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6668585169.146484</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4476,29 +5897,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>5541815768.753418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>922243699.6746216</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5541815768.753418</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4532,29 +5953,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>4915773938.329834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>873335304.9570312</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4915773938.329834</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4588,29 +6009,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>4186990438.33667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>777963168.0726929</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4186990438.33667</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4644,29 +6065,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6805260003.299072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1266320872.422546</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6805260003.299072</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4700,243 +6121,19 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8731144818.836914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1619178213.282959</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8731144818.836914</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>25632527377.14355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1546625348.004944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8327382229.635254</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>543289653666.8403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24346973795.30504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132582343571.7544</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>25419432123.30664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1356721554.657715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7281778596.723877</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>543521823109.981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24565826082.44305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132693524939.0912</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind</t>
+    <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Onshore wind</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
-    <t>PV</t>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1377486416.223807</v>
+        <v>17980061658.39883</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980061658.39883</v>
+        <v>25937846378.80515</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25937846378.80515</v>
+        <v>1377486416.223807</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1546625348.004944</v>
+        <v>8327382229.635254</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8327382229.635254</v>
+        <v>25632527377.14355</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25632527377.14355</v>
+        <v>1546625348.004944</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1356721554.657715</v>
+        <v>7281778596.723877</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7281778596.723877</v>
+        <v>25419432123.30664</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25419432123.30664</v>
+        <v>1356721554.657715</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1729281599.856736</v>
+        <v>13245593686.38689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245593686.38689</v>
+        <v>54024300930.63694</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54024300930.63694</v>
+        <v>1729281599.856736</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535940463.6438637</v>
+        <v>14164423972.55055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164423972.55055</v>
+        <v>81397076383.76286</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81397076383.76286</v>
+        <v>535940463.6438637</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1316954502.168335</v>
+        <v>15179251962.60831</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179251962.60831</v>
+        <v>47738153050.95908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47738153050.95908</v>
+        <v>1316954502.168335</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4284928384.359999</v>
+        <v>12469164548.02945</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469164548.02945</v>
+        <v>23792033748.98618</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23792033748.98618</v>
+        <v>4284928384.359999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2265418278.962328</v>
+        <v>15231762535.09015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15231762535.09015</v>
+        <v>14496798967.61572</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14496798967.61572</v>
+        <v>2265418278.962328</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11327288125.82935</v>
+        <v>13315150093.65567</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13315150093.65567</v>
+        <v>13624002982.41858</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13624002982.41858</v>
+        <v>11327288125.82935</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5279288345.264816</v>
+        <v>13702331738.63312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13702331738.63312</v>
+        <v>9604790170.775726</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9604790170.775726</v>
+        <v>5279288345.264816</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6118531120.062958</v>
+        <v>13839959061.69427</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13839959061.69427</v>
+        <v>7790778600.763855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7790778600.763855</v>
+        <v>6118531120.062958</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7032820688.236168</v>
+        <v>9118881992.328369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9118881992.328369</v>
+        <v>10127035980.03432</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10127035980.03432</v>
+        <v>7032820688.236168</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37117897.44300002</v>
+        <v>7846528544.909435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846528544.909435</v>
+        <v>407753480.198209</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407753480.198209</v>
+        <v>37117897.44300002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4982516401.119667</v>
+        <v>11095645906.34433</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11095645906.34433</v>
+        <v>18616429154.1256</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18616429154.1256</v>
+        <v>4982516401.119667</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6793235155.241112</v>
+        <v>8929337677.076752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8929337677.076752</v>
+        <v>16242725542.94383</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16242725542.94383</v>
+        <v>6793235155.241112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1449430787.146317</v>
+        <v>12411532548.85339</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12411532548.85339</v>
+        <v>20476812366.90601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20476812366.90601</v>
+        <v>1449430787.146317</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2362718826.584381</v>
+        <v>16862311989.0195</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16862311989.0195</v>
+        <v>25822499810.69904</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25822499810.69904</v>
+        <v>2362718826.584381</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7677268610.170937</v>
+        <v>43210239597.37207</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43210239597.37207</v>
+        <v>170309508834.5392</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170309508834.5392</v>
+        <v>7677268610.170937</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7760554900.256691</v>
+        <v>44096889369.37411</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44096889369.37411</v>
+        <v>170529340787.2313</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170529340787.2313</v>
+        <v>7760554900.256691</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7781610991.801331</v>
+        <v>42843028251.3125</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42843028251.3125</v>
+        <v>170773795074.5293</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170773795074.5293</v>
+        <v>7781610991.801331</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24373807581.61069</v>
+        <v>132070732640.2859</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132070732640.2859</v>
+        <v>542765522518.8086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542765522518.8086</v>
+        <v>24373807581.61069</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24190911824.9951</v>
+        <v>132352982916.6697</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132352982916.6697</v>
+        <v>543032199831.7322</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543032199831.7322</v>
+        <v>24190911824.9951</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24346973795.30504</v>
+        <v>132582343571.7544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132582343571.7544</v>
+        <v>543289653666.8403</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543289653666.8403</v>
+        <v>24346973795.30504</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>676370575.6279999</v>
+        <v>9671167627.441425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671167627.441425</v>
+        <v>344203163.7569749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344203163.7569749</v>
+        <v>676370575.6279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24565826082.44305</v>
+        <v>132693524939.0912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132693524939.0912</v>
+        <v>543521823109.981</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543521823109.981</v>
+        <v>24565826082.44305</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24602135669.79718</v>
+        <v>132656338131.782</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132656338131.782</v>
+        <v>543714023833.9414</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543714023833.9414</v>
+        <v>24602135669.79718</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22118681370.61719</v>
+        <v>118745130172.0404</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118745130172.0404</v>
+        <v>519381857384.4888</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519381857384.4888</v>
+        <v>22118681370.61719</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22169736450.10083</v>
+        <v>118800924972.3445</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118800924972.3445</v>
+        <v>519474338218.2339</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519474338218.2339</v>
+        <v>22169736450.10083</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22032864100.5658</v>
+        <v>117690639476.2842</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117690639476.2842</v>
+        <v>519532245484.5791</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519532245484.5791</v>
+        <v>22032864100.5658</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22085133682.8027</v>
+        <v>117504858791.2717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117504858791.2717</v>
+        <v>519592801998.0156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519592801998.0156</v>
+        <v>22085133682.8027</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22765110331.78131</v>
+        <v>117906713844.1238</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117906713844.1238</v>
+        <v>519720386421.3115</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519720386421.3115</v>
+        <v>22765110331.78131</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4210544775.0224</v>
+        <v>14431842134.10205</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14431842134.10205</v>
+        <v>85788387551.42578</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85788387551.42578</v>
+        <v>4210544775.0224</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4230604119.594238</v>
+        <v>14686468858.92773</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14686468858.92773</v>
+        <v>86356951970.17773</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>86356951970.17773</v>
+        <v>4230604119.594238</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4121489969.781738</v>
+        <v>14415344275.98975</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14415344275.98975</v>
+        <v>87339533106.80469</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87339533106.80469</v>
+        <v>4121489969.781738</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>863609747.1737996</v>
+        <v>7676332671.315521</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676332671.315521</v>
+        <v>971097149.2381296</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971097149.2381296</v>
+        <v>863609747.1737996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2444831447.661865</v>
+        <v>14078346928.2373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14078346928.2373</v>
+        <v>88863260253.18164</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>88863260253.18164</v>
+        <v>2444831447.661865</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2056751996.938904</v>
+        <v>13814853014.10962</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13814853014.10962</v>
+        <v>91021932841.18359</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>91021932841.18359</v>
+        <v>2056751996.938904</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>11712219059.19531</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11712219059.19531</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1072354107.567871</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1072354107.567871</v>
+        <v>15159142762.69238</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15159142762.69238</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3054804428.112305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3054804428.112305</v>
+        <v>19084988451.42676</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19084988451.42676</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6432388108.742188</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6432388108.742188</v>
+        <v>23258662066.87012</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23258662066.87012</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1175507534.411072</v>
+        <v>11215630984.82275</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11215630984.82275</v>
+        <v>27372791670.24609</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27372791670.24609</v>
+        <v>1175507534.411072</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2883725455.154846</v>
+        <v>15065369164.2522</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15065369164.2522</v>
+        <v>31064880122.99121</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31064880122.99121</v>
+        <v>2883725455.154846</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3173400352.655579</v>
+        <v>16500172465.20337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16500172465.20337</v>
+        <v>33942196865.25781</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33942196865.25781</v>
+        <v>3173400352.655579</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4555703606.829712</v>
+        <v>24176974737.93823</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24176974737.93823</v>
+        <v>35610352600.6377</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35610352600.6377</v>
+        <v>4555703606.829712</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103930112.8404005</v>
+        <v>10163621845.63424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163621845.63424</v>
+        <v>2894024570.37797</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894024570.37797</v>
+        <v>103930112.8404005</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5940815413.478638</v>
+        <v>31909799967.84473</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31909799967.84473</v>
+        <v>35708653227.7002</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35708653227.7002</v>
+        <v>5940815413.478638</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3090818148.980225</v>
+        <v>16737401072.43066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16737401072.43066</v>
+        <v>33954835525.52148</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33954835525.52148</v>
+        <v>3090818148.980225</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>335651944.8779907</v>
+        <v>1480904541.851562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1480904541.851562</v>
+        <v>30196682096.0752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30196682096.0752</v>
+        <v>335651944.8779907</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24460708910.42285</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24460708910.42285</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>16982945480.43066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16982945480.43066</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8207365785.783203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8207365785.783203</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>54140983847.99805</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54140983847.99805</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>60366496548.67871</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>60366496548.67871</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1268213599.615479</v>
+        <v>5405633516.099121</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5405633516.099121</v>
+        <v>51629381923.6748</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>51629381923.6748</v>
+        <v>1268213599.615479</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>44206955206.46973</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44206955206.46973</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9696589980.632721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696589980.632721</v>
+        <v>3986219445.466927</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986219445.466927</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>38545814066.32422</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38545814066.32422</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>34909184414.46973</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34909184414.46973</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2125313326.440918</v>
+        <v>13973540626.73096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13973540626.73096</v>
+        <v>25331868299.03516</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25331868299.03516</v>
+        <v>2125313326.440918</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2045588982.733215</v>
+        <v>14405828349.78223</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14405828349.78223</v>
+        <v>25835460728.07812</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25835460728.07812</v>
+        <v>2045588982.733215</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2037027902.702026</v>
+        <v>12770583420.40674</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12770583420.40674</v>
+        <v>28149167353.31445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28149167353.31445</v>
+        <v>2037027902.702026</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2217733902.103699</v>
+        <v>12105638017.61401</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12105638017.61401</v>
+        <v>31918706622.76562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31918706622.76562</v>
+        <v>2217733902.103699</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2715711935.365112</v>
+        <v>15352430105.49146</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15352430105.49146</v>
+        <v>36677116530.92188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36677116530.92188</v>
+        <v>2715711935.365112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2837302274.129761</v>
+        <v>16609749045.48438</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16609749045.48438</v>
+        <v>33949694170.49707</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33949694170.49707</v>
+        <v>2837302274.129761</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3185206867.864075</v>
+        <v>17685138273.70386</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17685138273.70386</v>
+        <v>39088755414.55078</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39088755414.55078</v>
+        <v>3185206867.864075</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3594882266.573975</v>
+        <v>18088744672.06909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18088744672.06909</v>
+        <v>43718933405.01465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43718933405.01465</v>
+        <v>3594882266.573975</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>445414769.3159997</v>
+        <v>11614231857.3879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614231857.3879</v>
+        <v>3868290476.759933</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868290476.759933</v>
+        <v>445414769.3159997</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3695257456.58313</v>
+        <v>17833119822.27026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17833119822.27026</v>
+        <v>47564108112.48438</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47564108112.48438</v>
+        <v>3695257456.58313</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3411996439.107971</v>
+        <v>17476245189.04736</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17476245189.04736</v>
+        <v>50527408571.62598</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50527408571.62598</v>
+        <v>3411996439.107971</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2788412426.726135</v>
+        <v>15109046015.60547</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15109046015.60547</v>
+        <v>46689537101.13379</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46689537101.13379</v>
+        <v>2788412426.726135</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1987927681.189026</v>
+        <v>10882579244.64722</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10882579244.64722</v>
+        <v>48131805617.64062</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48131805617.64062</v>
+        <v>1987927681.189026</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>853262816.3869629</v>
+        <v>4670912897.390381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4670912897.390381</v>
+        <v>49048698060.39258</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49048698060.39258</v>
+        <v>853262816.3869629</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>797928682.8431396</v>
+        <v>4300580468.810059</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4300580468.810059</v>
+        <v>49592867117.9873</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49592867117.9873</v>
+        <v>797928682.8431396</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1696109934.150391</v>
+        <v>9202199763.266113</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9202199763.266113</v>
+        <v>49889379137.28613</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49889379137.28613</v>
+        <v>1696109934.150391</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2063826672.208191</v>
+        <v>11180682506.14941</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11180682506.14941</v>
+        <v>45870364767.69531</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45870364767.69531</v>
+        <v>2063826672.208191</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2185073654.493103</v>
+        <v>11757499438.39331</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11757499438.39331</v>
+        <v>45933844486.20996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45933844486.20996</v>
+        <v>2185073654.493103</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2249855545.025391</v>
+        <v>12039544898.01953</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12039544898.01953</v>
+        <v>45957672230.90039</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45957672230.90039</v>
+        <v>2249855545.025391</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>449538980.1430068</v>
+        <v>13346239590.20581</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346239590.20581</v>
+        <v>7210999170.734329</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7210999170.734329</v>
+        <v>449538980.1430068</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2335953053.268127</v>
+        <v>12423797094.58765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12423797094.58765</v>
+        <v>45958721368.76953</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45958721368.76953</v>
+        <v>2335953053.268127</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2297153085.545471</v>
+        <v>12312334566.71851</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12312334566.71851</v>
+        <v>45935110313.78613</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45935110313.78613</v>
+        <v>2297153085.545471</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1838243780.103577</v>
+        <v>10290899696.86841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10290899696.86841</v>
+        <v>41813665501.07031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41813665501.07031</v>
+        <v>1838243780.103577</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2005907329.251343</v>
+        <v>11384177516.71484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11384177516.71484</v>
+        <v>41717353228.10352</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41717353228.10352</v>
+        <v>2005907329.251343</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2490512637.045837</v>
+        <v>14129360421.45337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14129360421.45337</v>
+        <v>41591952280.39844</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41591952280.39844</v>
+        <v>2490512637.045837</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2700058523.061218</v>
+        <v>15419190166.89478</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15419190166.89478</v>
+        <v>41463657075.02734</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41463657075.02734</v>
+        <v>2700058523.061218</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2359946540.070007</v>
+        <v>12905997713.53442</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12905997713.53442</v>
+        <v>41369971178.93066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41369971178.93066</v>
+        <v>2359946540.070007</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1889535760.641357</v>
+        <v>9479080097.230469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9479080097.230469</v>
+        <v>37081641541.14941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37081641541.14941</v>
+        <v>1889535760.641357</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1983440550.584229</v>
+        <v>10009142630.73291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10009142630.73291</v>
+        <v>37153883373.18945</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37153883373.18945</v>
+        <v>1983440550.584229</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2055104996.74762</v>
+        <v>10941193270.92554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10941193270.92554</v>
+        <v>37318465303.66211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37318465303.66211</v>
+        <v>2055104996.74762</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>602134780.7422447</v>
+        <v>11317587635.03888</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317587635.03888</v>
+        <v>22035714670.36804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22035714670.36804</v>
+        <v>602134780.7422447</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2027181018.082214</v>
+        <v>10786128253.16821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10786128253.16821</v>
+        <v>37547066743.35938</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37547066743.35938</v>
+        <v>2027181018.082214</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1997455895.579102</v>
+        <v>10116978874.71973</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10116978874.71973</v>
+        <v>37792791465.32715</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37792791465.32715</v>
+        <v>1997455895.579102</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1679867416.373779</v>
+        <v>8280099699.258545</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8280099699.258545</v>
+        <v>33193014899.40527</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33193014899.40527</v>
+        <v>1679867416.373779</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1436110285.795776</v>
+        <v>7567367492.593994</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7567367492.593994</v>
+        <v>33328505672.08887</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33328505672.08887</v>
+        <v>1436110285.795776</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1140651970.374207</v>
+        <v>6668585169.146484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6668585169.146484</v>
+        <v>33365389216.58301</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33365389216.58301</v>
+        <v>1140651970.374207</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>922243699.6746216</v>
+        <v>5541815768.753418</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5541815768.753418</v>
+        <v>33301827224.31348</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33301827224.31348</v>
+        <v>922243699.6746216</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>873335304.9570312</v>
+        <v>4915773938.329834</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4915773938.329834</v>
+        <v>33152687432.83789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33152687432.83789</v>
+        <v>873335304.9570312</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>777963168.0726929</v>
+        <v>4186990438.33667</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4186990438.33667</v>
+        <v>26366915151.65625</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26366915151.65625</v>
+        <v>777963168.0726929</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1266320872.422546</v>
+        <v>6805260003.299072</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6805260003.299072</v>
+        <v>26123387171.74414</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26123387171.74414</v>
+        <v>1266320872.422546</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1619178213.282959</v>
+        <v>8731144818.836914</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8731144818.836914</v>
+        <v>25871827512.54395</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25871827512.54395</v>
+        <v>1619178213.282959</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Offshore wind plants</t>
+  </si>
+  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Photovoltaic plants</t>
-  </si>
-  <si>
-    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980061658.39883</v>
+        <v>1377486416.223807</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25937846378.80515</v>
+        <v>17980061658.39883</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377486416.223807</v>
+        <v>25937846378.80515</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8327382229.635254</v>
+        <v>1546625348.004944</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25632527377.14355</v>
+        <v>8327382229.635254</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1546625348.004944</v>
+        <v>25632527377.14355</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7281778596.723877</v>
+        <v>1356721554.657715</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25419432123.30664</v>
+        <v>7281778596.723877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1356721554.657715</v>
+        <v>25419432123.30664</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245593686.38689</v>
+        <v>1729281599.856736</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54024300930.63694</v>
+        <v>13245593686.38689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729281599.856736</v>
+        <v>54024300930.63694</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164423972.55055</v>
+        <v>535940463.6438637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81397076383.76286</v>
+        <v>14164423972.55055</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535940463.6438637</v>
+        <v>81397076383.76286</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179251962.60831</v>
+        <v>1316954502.168335</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47738153050.95908</v>
+        <v>15179251962.60831</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316954502.168335</v>
+        <v>47738153050.95908</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469164548.02945</v>
+        <v>4284928384.359999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23792033748.98618</v>
+        <v>12469164548.02945</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284928384.359999</v>
+        <v>23792033748.98618</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15231762535.09015</v>
+        <v>2265418278.962328</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14496798967.61572</v>
+        <v>15231762535.09015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265418278.962328</v>
+        <v>14496798967.61572</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13315150093.65567</v>
+        <v>11327288125.82935</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13624002982.41858</v>
+        <v>13315150093.65567</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327288125.82935</v>
+        <v>13624002982.41858</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13702331738.63312</v>
+        <v>5279288345.264816</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9604790170.775726</v>
+        <v>13702331738.63312</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279288345.264816</v>
+        <v>9604790170.775726</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13839959061.69427</v>
+        <v>6118531120.062958</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7790778600.763855</v>
+        <v>13839959061.69427</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6118531120.062958</v>
+        <v>7790778600.763855</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9118881992.328369</v>
+        <v>7032820688.236168</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10127035980.03432</v>
+        <v>9118881992.328369</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7032820688.236168</v>
+        <v>10127035980.03432</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7846528544.909435</v>
+        <v>37117897.44300002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407753480.198209</v>
+        <v>7846528544.909435</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37117897.44300002</v>
+        <v>407753480.198209</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11095645906.34433</v>
+        <v>4982516401.119667</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18616429154.1256</v>
+        <v>11095645906.34433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4982516401.119667</v>
+        <v>18616429154.1256</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8929337677.076752</v>
+        <v>6793235155.241112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16242725542.94383</v>
+        <v>8929337677.076752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6793235155.241112</v>
+        <v>16242725542.94383</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12411532548.85339</v>
+        <v>1449430787.146317</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20476812366.90601</v>
+        <v>12411532548.85339</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1449430787.146317</v>
+        <v>20476812366.90601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16862311989.0195</v>
+        <v>2362718826.584381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25822499810.69904</v>
+        <v>16862311989.0195</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2362718826.584381</v>
+        <v>25822499810.69904</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43210239597.37207</v>
+        <v>7677268610.170937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170309508834.5392</v>
+        <v>43210239597.37207</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7677268610.170937</v>
+        <v>170309508834.5392</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44096889369.37411</v>
+        <v>7760554900.256691</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170529340787.2313</v>
+        <v>44096889369.37411</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7760554900.256691</v>
+        <v>170529340787.2313</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42843028251.3125</v>
+        <v>7781610991.801331</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170773795074.5293</v>
+        <v>42843028251.3125</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7781610991.801331</v>
+        <v>170773795074.5293</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132070732640.2859</v>
+        <v>24373807581.61069</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542765522518.8086</v>
+        <v>132070732640.2859</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24373807581.61069</v>
+        <v>542765522518.8086</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132352982916.6697</v>
+        <v>24190911824.9951</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543032199831.7322</v>
+        <v>132352982916.6697</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24190911824.9951</v>
+        <v>543032199831.7322</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132582343571.7544</v>
+        <v>24346973795.30504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543289653666.8403</v>
+        <v>132582343571.7544</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24346973795.30504</v>
+        <v>543289653666.8403</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9671167627.441425</v>
+        <v>676370575.6279999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344203163.7569749</v>
+        <v>9671167627.441425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676370575.6279999</v>
+        <v>344203163.7569749</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132693524939.0912</v>
+        <v>24565826082.44305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543521823109.981</v>
+        <v>132693524939.0912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24565826082.44305</v>
+        <v>543521823109.981</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132656338131.782</v>
+        <v>24602135669.79718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543714023833.9414</v>
+        <v>132656338131.782</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24602135669.79718</v>
+        <v>543714023833.9414</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118745130172.0404</v>
+        <v>22118681370.61719</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519381857384.4888</v>
+        <v>118745130172.0404</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22118681370.61719</v>
+        <v>519381857384.4888</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118800924972.3445</v>
+        <v>22169736450.10083</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519474338218.2339</v>
+        <v>118800924972.3445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22169736450.10083</v>
+        <v>519474338218.2339</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117690639476.2842</v>
+        <v>22032864100.5658</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519532245484.5791</v>
+        <v>117690639476.2842</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22032864100.5658</v>
+        <v>519532245484.5791</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117504858791.2717</v>
+        <v>22085133682.8027</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519592801998.0156</v>
+        <v>117504858791.2717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22085133682.8027</v>
+        <v>519592801998.0156</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117906713844.1238</v>
+        <v>22765110331.78131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519720386421.3115</v>
+        <v>117906713844.1238</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22765110331.78131</v>
+        <v>519720386421.3115</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14431842134.10205</v>
+        <v>4210544775.0224</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85788387551.42578</v>
+        <v>14431842134.10205</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4210544775.0224</v>
+        <v>85788387551.42578</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14686468858.92773</v>
+        <v>4230604119.594238</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>86356951970.17773</v>
+        <v>14686468858.92773</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4230604119.594238</v>
+        <v>86356951970.17773</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14415344275.98975</v>
+        <v>4121489969.781738</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87339533106.80469</v>
+        <v>14415344275.98975</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4121489969.781738</v>
+        <v>87339533106.80469</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7676332671.315521</v>
+        <v>863609747.1737996</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>971097149.2381296</v>
+        <v>7676332671.315521</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863609747.1737996</v>
+        <v>971097149.2381296</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14078346928.2373</v>
+        <v>2444831447.661865</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>88863260253.18164</v>
+        <v>14078346928.2373</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2444831447.661865</v>
+        <v>88863260253.18164</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13814853014.10962</v>
+        <v>2056751996.938904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>91021932841.18359</v>
+        <v>13814853014.10962</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2056751996.938904</v>
+        <v>91021932841.18359</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11712219059.19531</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>11712219059.19531</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1072354107.567871</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15159142762.69238</v>
+        <v>1072354107.567871</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>15159142762.69238</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3054804428.112305</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19084988451.42676</v>
+        <v>3054804428.112305</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>19084988451.42676</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6432388108.742188</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23258662066.87012</v>
+        <v>6432388108.742188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>23258662066.87012</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11215630984.82275</v>
+        <v>1175507534.411072</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27372791670.24609</v>
+        <v>11215630984.82275</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1175507534.411072</v>
+        <v>27372791670.24609</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15065369164.2522</v>
+        <v>2883725455.154846</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31064880122.99121</v>
+        <v>15065369164.2522</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2883725455.154846</v>
+        <v>31064880122.99121</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16500172465.20337</v>
+        <v>3173400352.655579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33942196865.25781</v>
+        <v>16500172465.20337</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3173400352.655579</v>
+        <v>33942196865.25781</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24176974737.93823</v>
+        <v>4555703606.829712</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35610352600.6377</v>
+        <v>24176974737.93823</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4555703606.829712</v>
+        <v>35610352600.6377</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10163621845.63424</v>
+        <v>103930112.8404005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2894024570.37797</v>
+        <v>10163621845.63424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103930112.8404005</v>
+        <v>2894024570.37797</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31909799967.84473</v>
+        <v>5940815413.478638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35708653227.7002</v>
+        <v>31909799967.84473</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5940815413.478638</v>
+        <v>35708653227.7002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16737401072.43066</v>
+        <v>3090818148.980225</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33954835525.52148</v>
+        <v>16737401072.43066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3090818148.980225</v>
+        <v>33954835525.52148</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1480904541.851562</v>
+        <v>335651944.8779907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30196682096.0752</v>
+        <v>1480904541.851562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>335651944.8779907</v>
+        <v>30196682096.0752</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24460708910.42285</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>24460708910.42285</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16982945480.43066</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>16982945480.43066</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8207365785.783203</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8207365785.783203</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54140983847.99805</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>54140983847.99805</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60366496548.67871</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>60366496548.67871</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5405633516.099121</v>
+        <v>1268213599.615479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>51629381923.6748</v>
+        <v>5405633516.099121</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1268213599.615479</v>
+        <v>51629381923.6748</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44206955206.46973</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>44206955206.46973</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9696589980.632721</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3986219445.466927</v>
+        <v>9696589980.632721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3986219445.466927</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38545814066.32422</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>38545814066.32422</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34909184414.46973</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>34909184414.46973</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13973540626.73096</v>
+        <v>2125313326.440918</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25331868299.03516</v>
+        <v>13973540626.73096</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2125313326.440918</v>
+        <v>25331868299.03516</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14405828349.78223</v>
+        <v>2045588982.733215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25835460728.07812</v>
+        <v>14405828349.78223</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2045588982.733215</v>
+        <v>25835460728.07812</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12770583420.40674</v>
+        <v>2037027902.702026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28149167353.31445</v>
+        <v>12770583420.40674</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2037027902.702026</v>
+        <v>28149167353.31445</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12105638017.61401</v>
+        <v>2217733902.103699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31918706622.76562</v>
+        <v>12105638017.61401</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2217733902.103699</v>
+        <v>31918706622.76562</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15352430105.49146</v>
+        <v>2715711935.365112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36677116530.92188</v>
+        <v>15352430105.49146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2715711935.365112</v>
+        <v>36677116530.92188</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16609749045.48438</v>
+        <v>2837302274.129761</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33949694170.49707</v>
+        <v>16609749045.48438</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2837302274.129761</v>
+        <v>33949694170.49707</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17685138273.70386</v>
+        <v>3185206867.864075</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39088755414.55078</v>
+        <v>17685138273.70386</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3185206867.864075</v>
+        <v>39088755414.55078</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18088744672.06909</v>
+        <v>3594882266.573975</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43718933405.01465</v>
+        <v>18088744672.06909</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3594882266.573975</v>
+        <v>43718933405.01465</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11614231857.3879</v>
+        <v>445414769.3159997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3868290476.759933</v>
+        <v>11614231857.3879</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445414769.3159997</v>
+        <v>3868290476.759933</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17833119822.27026</v>
+        <v>3695257456.58313</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47564108112.48438</v>
+        <v>17833119822.27026</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3695257456.58313</v>
+        <v>47564108112.48438</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17476245189.04736</v>
+        <v>3411996439.107971</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50527408571.62598</v>
+        <v>17476245189.04736</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3411996439.107971</v>
+        <v>50527408571.62598</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15109046015.60547</v>
+        <v>2788412426.726135</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46689537101.13379</v>
+        <v>15109046015.60547</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2788412426.726135</v>
+        <v>46689537101.13379</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10882579244.64722</v>
+        <v>1987927681.189026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48131805617.64062</v>
+        <v>10882579244.64722</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1987927681.189026</v>
+        <v>48131805617.64062</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4670912897.390381</v>
+        <v>853262816.3869629</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49048698060.39258</v>
+        <v>4670912897.390381</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>853262816.3869629</v>
+        <v>49048698060.39258</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4300580468.810059</v>
+        <v>797928682.8431396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49592867117.9873</v>
+        <v>4300580468.810059</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>797928682.8431396</v>
+        <v>49592867117.9873</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9202199763.266113</v>
+        <v>1696109934.150391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49889379137.28613</v>
+        <v>9202199763.266113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1696109934.150391</v>
+        <v>49889379137.28613</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11180682506.14941</v>
+        <v>2063826672.208191</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45870364767.69531</v>
+        <v>11180682506.14941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2063826672.208191</v>
+        <v>45870364767.69531</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11757499438.39331</v>
+        <v>2185073654.493103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45933844486.20996</v>
+        <v>11757499438.39331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2185073654.493103</v>
+        <v>45933844486.20996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12039544898.01953</v>
+        <v>2249855545.025391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45957672230.90039</v>
+        <v>12039544898.01953</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2249855545.025391</v>
+        <v>45957672230.90039</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346239590.20581</v>
+        <v>449538980.1430068</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7210999170.734329</v>
+        <v>13346239590.20581</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449538980.1430068</v>
+        <v>7210999170.734329</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12423797094.58765</v>
+        <v>2335953053.268127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45958721368.76953</v>
+        <v>12423797094.58765</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2335953053.268127</v>
+        <v>45958721368.76953</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12312334566.71851</v>
+        <v>2297153085.545471</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45935110313.78613</v>
+        <v>12312334566.71851</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2297153085.545471</v>
+        <v>45935110313.78613</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10290899696.86841</v>
+        <v>1838243780.103577</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41813665501.07031</v>
+        <v>10290899696.86841</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1838243780.103577</v>
+        <v>41813665501.07031</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11384177516.71484</v>
+        <v>2005907329.251343</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41717353228.10352</v>
+        <v>11384177516.71484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2005907329.251343</v>
+        <v>41717353228.10352</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14129360421.45337</v>
+        <v>2490512637.045837</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41591952280.39844</v>
+        <v>14129360421.45337</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2490512637.045837</v>
+        <v>41591952280.39844</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15419190166.89478</v>
+        <v>2700058523.061218</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41463657075.02734</v>
+        <v>15419190166.89478</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2700058523.061218</v>
+        <v>41463657075.02734</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12905997713.53442</v>
+        <v>2359946540.070007</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41369971178.93066</v>
+        <v>12905997713.53442</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2359946540.070007</v>
+        <v>41369971178.93066</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9479080097.230469</v>
+        <v>1889535760.641357</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37081641541.14941</v>
+        <v>9479080097.230469</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1889535760.641357</v>
+        <v>37081641541.14941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10009142630.73291</v>
+        <v>1983440550.584229</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37153883373.18945</v>
+        <v>10009142630.73291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1983440550.584229</v>
+        <v>37153883373.18945</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10941193270.92554</v>
+        <v>2055104996.74762</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37318465303.66211</v>
+        <v>10941193270.92554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2055104996.74762</v>
+        <v>37318465303.66211</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317587635.03888</v>
+        <v>602134780.7422447</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22035714670.36804</v>
+        <v>11317587635.03888</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602134780.7422447</v>
+        <v>22035714670.36804</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10786128253.16821</v>
+        <v>2027181018.082214</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37547066743.35938</v>
+        <v>10786128253.16821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2027181018.082214</v>
+        <v>37547066743.35938</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10116978874.71973</v>
+        <v>1997455895.579102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37792791465.32715</v>
+        <v>10116978874.71973</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1997455895.579102</v>
+        <v>37792791465.32715</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8280099699.258545</v>
+        <v>1679867416.373779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33193014899.40527</v>
+        <v>8280099699.258545</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1679867416.373779</v>
+        <v>33193014899.40527</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7567367492.593994</v>
+        <v>1436110285.795776</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33328505672.08887</v>
+        <v>7567367492.593994</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1436110285.795776</v>
+        <v>33328505672.08887</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6668585169.146484</v>
+        <v>1140651970.374207</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33365389216.58301</v>
+        <v>6668585169.146484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1140651970.374207</v>
+        <v>33365389216.58301</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5541815768.753418</v>
+        <v>922243699.6746216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33301827224.31348</v>
+        <v>5541815768.753418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>922243699.6746216</v>
+        <v>33301827224.31348</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4915773938.329834</v>
+        <v>873335304.9570312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33152687432.83789</v>
+        <v>4915773938.329834</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>873335304.9570312</v>
+        <v>33152687432.83789</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4186990438.33667</v>
+        <v>777963168.0726929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26366915151.65625</v>
+        <v>4186990438.33667</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>777963168.0726929</v>
+        <v>26366915151.65625</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6805260003.299072</v>
+        <v>1266320872.422546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26123387171.74414</v>
+        <v>6805260003.299072</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1266320872.422546</v>
+        <v>26123387171.74414</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8731144818.836914</v>
+        <v>1619178213.282959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25871827512.54395</v>
+        <v>8731144818.836914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1619178213.282959</v>
+        <v>25871827512.54395</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
-  </si>
-  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Photovoltaic plants</t>
+  </si>
+  <si>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1377486416.223807</v>
+        <v>17980.06165839883</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980061658.39883</v>
+        <v>25937.84637880516</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25937846378.80515</v>
+        <v>1377.486416223807</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1546625348.004944</v>
+        <v>8327.382229635492</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8327382229.635254</v>
+        <v>25632.52737714164</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25632527377.14355</v>
+        <v>1546.625348005036</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1356721554.657715</v>
+        <v>7281.778596722987</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7281778596.723877</v>
+        <v>25419.432123309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25419432123.30664</v>
+        <v>1356.721554657619</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1729281599.856736</v>
+        <v>13245.5936863869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245593686.38689</v>
+        <v>54024.30093063696</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54024300930.63694</v>
+        <v>1729.281599856736</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535940463.6438637</v>
+        <v>14164.42397255058</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164423972.55055</v>
+        <v>81397.07638376285</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81397076383.76286</v>
+        <v>535.9404636438649</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1316954502.168335</v>
+        <v>15179.25196260831</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179251962.60831</v>
+        <v>47738.15305095911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47738153050.95908</v>
+        <v>1316.954502168335</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4284928384.359999</v>
+        <v>12469.16454802942</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469164548.02945</v>
+        <v>23792.03374898617</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23792033748.98618</v>
+        <v>4284.928384360001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2265418278.962328</v>
+        <v>15231.76253509018</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15231762535.09015</v>
+        <v>14496.7989676157</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14496798967.61572</v>
+        <v>2265.41827896233</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11327288125.82935</v>
+        <v>13315.15009365568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13315150093.65567</v>
+        <v>13624.00298241855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13624002982.41858</v>
+        <v>11327.28812582935</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5279288345.264816</v>
+        <v>13702.3317386331</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13702331738.63312</v>
+        <v>9604.790170775756</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9604790170.775726</v>
+        <v>5279.288345264817</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6118531120.062958</v>
+        <v>13839.95906169427</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13839959061.69427</v>
+        <v>7790.778600763835</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7790778600.763855</v>
+        <v>6118.531120062951</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7032820688.236168</v>
+        <v>9118.881992328359</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9118881992.328369</v>
+        <v>10127.03598003433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10127035980.03432</v>
+        <v>7032.820688236163</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37117897.44300002</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846528544.909435</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407753480.198209</v>
+        <v>37.117897443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4982516401.119667</v>
+        <v>11095.64590634435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11095645906.34433</v>
+        <v>18616.42915412558</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18616429154.1256</v>
+        <v>4982.516401119668</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6793235155.241112</v>
+        <v>8929.337677076721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8929337677.076752</v>
+        <v>16242.72554294384</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16242725542.94383</v>
+        <v>6793.235155241113</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1449430787.146317</v>
+        <v>12411.53254885337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12411532548.85339</v>
+        <v>20476.812366906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20476812366.90601</v>
+        <v>1449.43078714631</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2362718826.584381</v>
+        <v>16862.31198901948</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16862311989.0195</v>
+        <v>25822.49981069905</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25822499810.69904</v>
+        <v>2362.718826584394</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7677268610.170937</v>
+        <v>43210.2395973721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43210239597.37207</v>
+        <v>170309.5088345391</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170309508834.5392</v>
+        <v>7677.268610170926</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7760554900.256691</v>
+        <v>44096.88936937417</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44096889369.37411</v>
+        <v>170529.3407872314</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170529340787.2313</v>
+        <v>7760.554900256691</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7781610991.801331</v>
+        <v>42843.02825131238</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42843028251.3125</v>
+        <v>170773.7950745293</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170773795074.5293</v>
+        <v>7781.610991801324</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24373807581.61069</v>
+        <v>132070.732640286</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132070732640.2859</v>
+        <v>542765.5225188087</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>542765522518.8086</v>
+        <v>24373.80758161069</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24190911824.9951</v>
+        <v>132352.9829166697</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132352982916.6697</v>
+        <v>543032.1998317321</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543032199831.7322</v>
+        <v>24190.91182499511</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24346973795.30504</v>
+        <v>132582.3435717544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132582343571.7544</v>
+        <v>543289.6536668404</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543289653666.8403</v>
+        <v>24346.97379530502</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>676370575.6279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671167627.441425</v>
+        <v>344.2031637569753</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344203163.7569749</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24565826082.44305</v>
+        <v>132693.5249390912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132693524939.0912</v>
+        <v>543521.8231099811</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543521823109.981</v>
+        <v>24565.82608244306</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24602135669.79718</v>
+        <v>132656.338131782</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132656338131.782</v>
+        <v>543714.0238339412</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543714023833.9414</v>
+        <v>24602.13566979716</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22118681370.61719</v>
+        <v>118745.1301720404</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118745130172.0404</v>
+        <v>519381.8573844889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519381857384.4888</v>
+        <v>22118.68137061721</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22169736450.10083</v>
+        <v>118800.9249723447</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118800924972.3445</v>
+        <v>519474.3382182335</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519474338218.2339</v>
+        <v>22169.73645010084</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22032864100.5658</v>
+        <v>117690.6394762842</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117690639476.2842</v>
+        <v>519532.2454845794</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519532245484.5791</v>
+        <v>22032.86410056581</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22085133682.8027</v>
+        <v>117504.8587912717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117504858791.2717</v>
+        <v>519592.8019980155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519592801998.0156</v>
+        <v>22085.13368280264</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22765110331.78131</v>
+        <v>117906.7138441238</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117906713844.1238</v>
+        <v>519720.3864213126</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519720386421.3115</v>
+        <v>22765.11033178138</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4210544775.0224</v>
+        <v>14431.84213410178</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14431842134.10205</v>
+        <v>85788.38755142689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85788387551.42578</v>
+        <v>4210.544775022368</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4230604119.594238</v>
+        <v>14686.46885892795</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14686468858.92773</v>
+        <v>86356.95197017584</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>86356951970.17773</v>
+        <v>4230.604119594209</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4121489969.781738</v>
+        <v>14415.3442759898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14415344275.98975</v>
+        <v>87339.53310680389</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87339533106.80469</v>
+        <v>4121.489969781775</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>863609747.1737996</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676332671.315521</v>
+        <v>971.0971492381295</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971097149.2381296</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2444831447.661865</v>
+        <v>14078.34692823747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14078346928.2373</v>
+        <v>88863.26025318261</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>88863260253.18164</v>
+        <v>2444.831447661854</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2056751996.938904</v>
+        <v>13814.85301410919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13814853014.10962</v>
+        <v>91021.93284118362</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>91021932841.18359</v>
+        <v>2056.751996938954</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>11712.21905919537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11712219059.19531</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1072.354107567808</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1072354107.567871</v>
+        <v>15159.14276269265</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15159142762.69238</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3054.804428111995</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3054804428.112305</v>
+        <v>19084.98845142592</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19084988451.42676</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6432.388108742191</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6432388108.742188</v>
+        <v>23258.66206687037</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23258662066.87012</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1175507534.411072</v>
+        <v>11215.63098482299</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11215630984.82275</v>
+        <v>27372.79167024512</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27372791670.24609</v>
+        <v>1175.507534411212</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2883725455.154846</v>
+        <v>15065.36916425196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15065369164.2522</v>
+        <v>31064.88012299128</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31064880122.99121</v>
+        <v>2883.725455154839</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3173400352.655579</v>
+        <v>16500.17246520356</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16500172465.20337</v>
+        <v>33942.19686525874</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33942196865.25781</v>
+        <v>3173.400352655503</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4555703606.829712</v>
+        <v>24176.97473793803</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24176974737.93823</v>
+        <v>35610.35260063875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35610352600.6377</v>
+        <v>4555.703606829746</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103930112.8404005</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163621845.63424</v>
+        <v>2894.024570377971</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894024570.37797</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5940815413.478638</v>
+        <v>31909.79996784497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31909799967.84473</v>
+        <v>35708.65322769992</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35708653227.7002</v>
+        <v>5940.815413478645</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3090818148.980225</v>
+        <v>16737.40107243066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16737401072.43066</v>
+        <v>33954.83552552015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33954835525.52148</v>
+        <v>3090.818148980266</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>335651944.8779907</v>
+        <v>1480.90454185172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1480904541.851562</v>
+        <v>30196.6820960762</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30196682096.0752</v>
+        <v>335.6519448778708</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24460.70891042333</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24460708910.42285</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>16982.94548042957</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16982945480.43066</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8207.365785783157</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8207365785.783203</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>54140.98384799901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54140983847.99805</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>60366.49654867779</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>60366496548.67871</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1268213599.615479</v>
+        <v>5405.633516099071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5405633516.099121</v>
+        <v>51629.38192367461</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>51629381923.6748</v>
+        <v>1268.213599615439</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>44206.95520646963</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44206955206.46973</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9696.589980632714</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696589980.632721</v>
+        <v>3986.219445466927</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986219445.466927</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>38545.81406632438</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38545814066.32422</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>34909.18441446964</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34909184414.46973</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2125313326.440918</v>
+        <v>13973.540626731</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13973540626.73096</v>
+        <v>25331.86829903442</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25331868299.03516</v>
+        <v>2125.313326441043</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2045588982.733215</v>
+        <v>14405.82834978215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14405828349.78223</v>
+        <v>25835.46072807908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25835460728.07812</v>
+        <v>2045.588982733141</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2037027902.702026</v>
+        <v>12770.58342040633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12770583420.40674</v>
+        <v>28149.16735331528</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28149167353.31445</v>
+        <v>2037.027902702044</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2217733902.103699</v>
+        <v>12105.63801761414</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12105638017.61401</v>
+        <v>31918.7066227654</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31918706622.76562</v>
+        <v>2217.733902103675</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2715711935.365112</v>
+        <v>15352.43010549201</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15352430105.49146</v>
+        <v>36677.11653092131</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36677116530.92188</v>
+        <v>2715.711935365107</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2837302274.129761</v>
+        <v>16609.749045484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16609749045.48438</v>
+        <v>33949.69417049643</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33949694170.49707</v>
+        <v>2837.302274129761</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3185206867.864075</v>
+        <v>17685.1382737041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17685138273.70386</v>
+        <v>39088.75541455112</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39088755414.55078</v>
+        <v>3185.206867864123</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3594882266.573975</v>
+        <v>18088.74467206886</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18088744672.06909</v>
+        <v>43718.93340501562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43718933405.01465</v>
+        <v>3594.882266573957</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>445414769.3159997</v>
+        <v>11614.23185738789</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614231857.3879</v>
+        <v>3868.290476759934</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868290476.759933</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3695257456.58313</v>
+        <v>17833.1198222707</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17833119822.27026</v>
+        <v>47564.10811248422</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47564108112.48438</v>
+        <v>3695.257456583146</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3411996439.107971</v>
+        <v>17476.24518904695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17476245189.04736</v>
+        <v>50527.40857162606</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50527408571.62598</v>
+        <v>3411.996439107868</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2788412426.726135</v>
+        <v>15109.04601560603</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15109046015.60547</v>
+        <v>46689.53710113466</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46689537101.13379</v>
+        <v>2788.412426726194</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1987927681.189026</v>
+        <v>10882.57924464648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10882579244.64722</v>
+        <v>48131.80561763979</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48131805617.64062</v>
+        <v>1987.927681189089</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>853262816.3869629</v>
+        <v>4670.912897390546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4670912897.390381</v>
+        <v>49048.6980603924</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49048698060.39258</v>
+        <v>853.2628163868794</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>797928682.8431396</v>
+        <v>4300.580468810163</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4300580468.810059</v>
+        <v>49592.86711798795</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49592867117.9873</v>
+        <v>797.928682843165</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1696109934.150391</v>
+        <v>9202.19976326637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9202199763.266113</v>
+        <v>49889.37913728599</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49889379137.28613</v>
+        <v>1696.109934150358</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2063826672.208191</v>
+        <v>11180.68250614917</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11180682506.14941</v>
+        <v>45870.36476769578</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45870364767.69531</v>
+        <v>2063.826672208263</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2185073654.493103</v>
+        <v>11757.4994383934</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11757499438.39331</v>
+        <v>45933.8444862105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45933844486.20996</v>
+        <v>2185.073654493026</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2249855545.025391</v>
+        <v>12039.54489801964</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12039544898.01953</v>
+        <v>45957.67223089654</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45957672230.90039</v>
+        <v>2249.855545025435</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>449538980.1430068</v>
+        <v>13346.23959020583</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346239590.20581</v>
+        <v>7210.999170734332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7210999170.734329</v>
+        <v>449.5389801430069</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2335953053.268127</v>
+        <v>12423.79709458747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12423797094.58765</v>
+        <v>45958.72136877198</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45958721368.76953</v>
+        <v>2335.95305326808</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2297153085.545471</v>
+        <v>12312.33456671867</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12312334566.71851</v>
+        <v>45935.11031378619</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45935110313.78613</v>
+        <v>2297.153085545462</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1838243780.103577</v>
+        <v>10290.89969686815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10290899696.86841</v>
+        <v>41813.66550106835</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41813665501.07031</v>
+        <v>1838.243780103687</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2005907329.251343</v>
+        <v>11384.1775167149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11384177516.71484</v>
+        <v>41717.3532281043</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41717353228.10352</v>
+        <v>2005.907329251291</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2490512637.045837</v>
+        <v>14129.36042145314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14129360421.45337</v>
+        <v>41591.95228039939</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41591952280.39844</v>
+        <v>2490.512637045817</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2700058523.061218</v>
+        <v>15419.19016689504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15419190166.89478</v>
+        <v>41463.657075027</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41463657075.02734</v>
+        <v>2700.05852306122</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2359946540.070007</v>
+        <v>12905.99771353463</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12905997713.53442</v>
+        <v>41369.97117893025</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41369971178.93066</v>
+        <v>2359.946540069941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1889535760.641357</v>
+        <v>9479.080097230384</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9479080097.230469</v>
+        <v>37081.64154115133</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37081641541.14941</v>
+        <v>1889.535760641447</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1983440550.584229</v>
+        <v>10009.14263073285</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10009142630.73291</v>
+        <v>37153.88337318879</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37153883373.18945</v>
+        <v>1983.440550584171</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2055104996.74762</v>
+        <v>10941.1932709259</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10941193270.92554</v>
+        <v>37318.46530366316</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37318465303.66211</v>
+        <v>2055.104996747628</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>602134780.7422447</v>
+        <v>11317.58763503887</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317587635.03888</v>
+        <v>22035.71467036803</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22035714670.36804</v>
+        <v>602.1347807422444</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2027181018.082214</v>
+        <v>10786.12825316796</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10786128253.16821</v>
+        <v>37547.06674335804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37547066743.35938</v>
+        <v>2027.18101808225</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1997455895.579102</v>
+        <v>10116.9788747197</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10116978874.71973</v>
+        <v>37792.79146532714</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37792791465.32715</v>
+        <v>1997.455895579071</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1679867416.373779</v>
+        <v>8280.099699258339</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8280099699.258545</v>
+        <v>33193.01489940379</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33193014899.40527</v>
+        <v>1679.867416373803</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1436110285.795776</v>
+        <v>7567.367492594291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7567367492.593994</v>
+        <v>33328.50567208976</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33328505672.08887</v>
+        <v>1436.110285795759</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1140651970.374207</v>
+        <v>6668.585169146769</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6668585169.146484</v>
+        <v>33365.38921658229</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33365389216.58301</v>
+        <v>1140.651970374165</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>922243699.6746216</v>
+        <v>5541.815768752713</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5541815768.753418</v>
+        <v>33301.82722431608</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33301827224.31348</v>
+        <v>922.2436996747274</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>873335304.9570312</v>
+        <v>4915.77393832989</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4915773938.329834</v>
+        <v>33152.68743283674</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33152687432.83789</v>
+        <v>873.3353049569996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>777963168.0726929</v>
+        <v>4186.990438336972</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4186990438.33667</v>
+        <v>26366.91515165754</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26366915151.65625</v>
+        <v>777.9631680727471</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1266320872.422546</v>
+        <v>6805.260003298987</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6805260003.299072</v>
+        <v>26123.38717174158</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26123387171.74414</v>
+        <v>1266.320872422482</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1619178213.282959</v>
+        <v>8731.144818837289</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8731144818.836914</v>
+        <v>25871.82751254551</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25871827512.54395</v>
+        <v>1619.178213282954</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -149,10 +149,10 @@
     <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980.06165839883</v>
+        <v>17980.06165843343</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25937.84637880516</v>
+        <v>1377.486416224058</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377.486416223807</v>
+        <v>25938.45315556641</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8327.382229635492</v>
+        <v>151757.9556369632</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25632.52737714164</v>
+        <v>26864.27554940042</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1546.625348005036</v>
+        <v>385984.9877174739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7281.778596722987</v>
+        <v>146384.3514532503</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25419.432123309</v>
+        <v>26211.49460044911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1356.721554657619</v>
+        <v>395997.1510460842</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245.5936863869</v>
+        <v>13245.59368707854</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54024.30093063696</v>
+        <v>1729.281599862794</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729.281599856736</v>
+        <v>54025.76506790129</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164.42397255058</v>
+        <v>14164.42398226922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81397.07638376285</v>
+        <v>535.9404637455591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535.9404636438649</v>
+        <v>81400.32061419905</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179.25196260831</v>
+        <v>15179.25206601215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47738.15305095911</v>
+        <v>1316.954503440213</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316.954502168335</v>
+        <v>47744.90543532529</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469.16454802942</v>
+        <v>12469.1654263869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23792.03374898617</v>
+        <v>4284.928396832054</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284.928384360001</v>
+        <v>23805.45859660057</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15231.76253509018</v>
+        <v>15231.76872957087</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14496.7989676157</v>
+        <v>2265.418378735085</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265.41827896233</v>
+        <v>14522.58933646951</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13315.15009365568</v>
+        <v>13315.18745783824</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13624.00298241855</v>
+        <v>11327.28879767143</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327.28812582935</v>
+        <v>13672.14556387637</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13702.3317386331</v>
+        <v>13702.52901390451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9604.790170775756</v>
+        <v>5279.292249704253</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279.288345264817</v>
+        <v>9692.029235733818</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13839.95906169427</v>
+        <v>13840.88764678061</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7790.778600763835</v>
+        <v>6118.551102416804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6118.531120062951</v>
+        <v>7943.6551642462</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9118.881992328359</v>
+        <v>9122.836520385667</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10127.03598003433</v>
+        <v>7032.912240152422</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7032.820688236163</v>
+        <v>10385.35673989711</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407.7534801982089</v>
+        <v>37.117897443</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37.117897443</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11095.64590634435</v>
+        <v>11111.06302655188</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18616.42915412558</v>
+        <v>4982.896990039088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4982.516401119668</v>
+        <v>19037.02000269132</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8929.337677076721</v>
+        <v>8984.851328296791</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16242.72554294384</v>
+        <v>6794.686275198197</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6793.235155241113</v>
+        <v>16903.28317231846</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12411.53254885337</v>
+        <v>12597.04260282099</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20476.812366906</v>
+        <v>1454.54555951785</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1449.43078714631</v>
+        <v>21479.59752336062</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16862.31198901948</v>
+        <v>17435.75330380467</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25822.49981069905</v>
+        <v>2379.437435938249</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2362.718826584394</v>
+        <v>27297.53626932495</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43210.2395973721</v>
+        <v>44815.06856983752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170309.5088345391</v>
+        <v>7727.607686475742</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7677.268610170926</v>
+        <v>172416.8497156715</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44096.88936937417</v>
+        <v>47926.05775988204</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170529.3407872314</v>
+        <v>7896.215498744321</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7760.554900256691</v>
+        <v>173459.8095952904</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42843.02825131238</v>
+        <v>49783.18583186669</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170773.7950745293</v>
+        <v>8085.879402557584</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7781.610991801324</v>
+        <v>174747.4678735821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132070.732640286</v>
+        <v>140868.0182928382</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>542765.5225188087</v>
+        <v>24867.73989618044</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24373.80758161069</v>
+        <v>548027.2578735575</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132352.9829166697</v>
+        <v>141597.8327870083</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543032.1998317321</v>
+        <v>24677.67860980325</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24190.91182499511</v>
+        <v>549843.8984648788</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132582.3435717544</v>
+        <v>142557.0079367376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543289.6536668404</v>
+        <v>24643.6792937447</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24346.97379530502</v>
+        <v>551919.0227576825</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344.2031637569753</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676.3705756279999</v>
+        <v>344.2031637569753</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132693.5249390912</v>
+        <v>143627.3644563692</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543521.8231099811</v>
+        <v>24828.53226487397</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24565.82608244306</v>
+        <v>554227.9037718717</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132656.338131782</v>
+        <v>144660.534181704</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543714.0238339412</v>
+        <v>25049.69482362139</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24602.13566979716</v>
+        <v>556731.3786079739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118745.1301720404</v>
+        <v>131782.4960095</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519381.8573844889</v>
+        <v>22787.40308450669</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22118.68137061721</v>
+        <v>534906.2194941896</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118800.9249723447</v>
+        <v>132674.0968200304</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519474.3382182335</v>
+        <v>23116.42483252558</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22169.73645010084</v>
+        <v>537653.2437858433</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117690.6394762842</v>
+        <v>132455.4133390964</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519532.2454845794</v>
+        <v>23308.57425864067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22032.86410056581</v>
+        <v>540465.4210512098</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117504.8587912717</v>
+        <v>132050.9540726601</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519592.8019980155</v>
+        <v>23552.99338370672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22085.13368280264</v>
+        <v>543348.2358288188</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117906.7138441238</v>
+        <v>132048.3687874426</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519720.3864213126</v>
+        <v>24477.38962583191</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22765.11033178138</v>
+        <v>546372.4018217847</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14431.84213410178</v>
+        <v>28570.98122489778</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85788.38755142689</v>
+        <v>6847.222093995719</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4210.544775022368</v>
+        <v>115483.0291206278</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14686.46885892795</v>
+        <v>28555.79085573158</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>86356.95197017584</v>
+        <v>8354.538214316592</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4230.604119594209</v>
+        <v>119406.8458949588</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14415.3442759898</v>
+        <v>28270.27146522724</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87339.53310680389</v>
+        <v>9752.76226304291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4121.489969781775</v>
+        <v>124344.7042936506</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>971.0971492381295</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863.6097471737995</v>
+        <v>971.0971607599638</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14078.34692823747</v>
+        <v>27650.22910281341</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>88863.26025318261</v>
+        <v>9474.39932342415</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2444.831447661854</v>
+        <v>130846.2916843053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13814.85301410919</v>
+        <v>26773.93498362717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>91021.93284118362</v>
+        <v>8808.175489955058</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2056.751996938954</v>
+        <v>139556.5393982548</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>11801.53084685747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11712.21905919537</v>
+        <v>6082.923062054906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>69018.47698623035</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1072.354107567808</v>
+        <v>12245.63379654288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15159.14276269265</v>
+        <v>5490.039944416203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>84138.24449381977</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3054.804428111995</v>
+        <v>14789.80717630452</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19084.98845142592</v>
+        <v>4763.103802167345</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>103271.9513053801</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6432.388108742191</v>
+        <v>20956.66173975868</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23258.66206687037</v>
+        <v>4174.852729033795</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>126682.3064463697</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11215.63098482299</v>
+        <v>32344.49336337321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27372.79167024512</v>
+        <v>5253.538528213918</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1175.507534411212</v>
+        <v>154325.3320433535</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15065.36916425196</v>
+        <v>48198.54244355718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31064.88012299128</v>
+        <v>8070.736861968355</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2883.725455154839</v>
+        <v>185794.9889920503</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16500.17246520356</v>
+        <v>66044.32960489788</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33942.19686525874</v>
+        <v>11213.29973932425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3173.400352655503</v>
+        <v>220292.7773627983</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24176.97473793803</v>
+        <v>91618.78745175549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35610.35260063875</v>
+        <v>15753.44763112738</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4555.703606829746</v>
+        <v>256626.0825850312</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2894.024570377971</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103.9301128404004</v>
+        <v>2894.025055082801</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31909.79996784497</v>
+        <v>124340.0680778075</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35708.65322769992</v>
+        <v>21638.84549655084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5940.815413478645</v>
+        <v>293242.1488960115</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16737.40107243066</v>
+        <v>141285.2037009636</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33954.83552552015</v>
+        <v>24592.46003939077</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3090.818148980266</v>
+        <v>328307.1693764683</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1480.90454185172</v>
+        <v>142868.4326420445</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30196.6820960762</v>
+        <v>24761.8796683551</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>335.6519448778708</v>
+        <v>359837.4716405775</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>142114.3932239299</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24460.70891042333</v>
+        <v>24612.43834403204</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>385879.946305586</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>139264.4616638052</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16982.94548042957</v>
+        <v>24165.08323386143</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>404723.8385585155</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>134623.0821859732</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8207.365785783157</v>
+        <v>23464.76404123526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>415111.5101987766</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>130898.0367213835</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54140.98384799901</v>
+        <v>23031.60121237708</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>471804.6978974557</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>125867.0876399919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60366.49654867779</v>
+        <v>22512.06888500066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>479767.2943723351</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5405.633516099071</v>
+        <v>130537.6364759156</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>51629.38192367461</v>
+        <v>24056.44597986346</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1268.213599615439</v>
+        <v>463846.1058890931</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>103339.5143332328</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44206.95520646963</v>
+        <v>20054.84639238106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>441138.0997319184</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3986.219445466927</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.273736754432321E-13</v>
+        <v>3986.223732200622</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>66795.94705762132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38545.81406632438</v>
+        <v>14554.50930459704</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>413535.1273299791</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>47706.773632742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34909.18441446964</v>
+        <v>12171.25169183098</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>383213.4588276288</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13973.540626731</v>
+        <v>43127.80908617005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25331.86829903442</v>
+        <v>12006.03851084982</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2125.313326441043</v>
+        <v>344401.6112809032</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14405.82834978215</v>
+        <v>40898.49474859145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25835.46072807908</v>
+        <v>11632.99203990138</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2045.588982733141</v>
+        <v>315409.3817799473</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12770.58342040633</v>
+        <v>36914.066940594</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28149.16735331528</v>
+        <v>10550.40547225968</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2037.027902702044</v>
+        <v>290177.0594164673</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12105.63801761414</v>
+        <v>32491.86261585797</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31918.7066227654</v>
+        <v>9233.262260338292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2217.733902103675</v>
+        <v>270325.4733778657</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15352.43010549201</v>
+        <v>32273.66828029603</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36677.11653092131</v>
+        <v>8379.482881665695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2715.711935365107</v>
+        <v>256976.6457822379</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16609.749045484</v>
+        <v>35209.71001402824</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33949.69417049643</v>
+        <v>7791.935701778682</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2837.302274129761</v>
+        <v>242726.4205521541</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17685.1382737041</v>
+        <v>44187.95533481822</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39088.75541455112</v>
+        <v>8324.485229643469</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3185.206867864123</v>
+        <v>243391.2390564233</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18088.74467206886</v>
+        <v>57472.54958482808</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43718.93340501562</v>
+        <v>10029.13041614258</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3594.882266573957</v>
+        <v>250440.890405111</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3868.290476759934</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445.4147693159996</v>
+        <v>3868.311143512359</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17833.1198222707</v>
+        <v>74800.21481244452</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47564.10811248422</v>
+        <v>12907.47104821773</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3695.257456583146</v>
+        <v>262902.4473182308</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17476.24518904695</v>
+        <v>95619.45909680449</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50527.40857162606</v>
+        <v>16586.60510532727</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3411.996439107868</v>
+        <v>279589.5256435033</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15109.04601560603</v>
+        <v>117214.905008025</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46689.53710113466</v>
+        <v>20412.44026216649</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2788.412426726194</v>
+        <v>293278.0468448326</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10882.57924464648</v>
+        <v>138108.2437243562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48131.80561763979</v>
+        <v>24121.41007011733</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1987.927681189089</v>
+        <v>314685.8677939167</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4670.912897390546</v>
+        <v>150425.1978878637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49048.6980603924</v>
+        <v>26278.1284463263</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>853.2628163868794</v>
+        <v>336691.4519069036</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4300.580468810163</v>
+        <v>153653.6440154181</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49592.86711798795</v>
+        <v>26818.94343034516</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>797.928682843165</v>
+        <v>358234.5636864807</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9202.19976326637</v>
+        <v>152317.9981350719</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49889.37913728599</v>
+        <v>26607.54334631341</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1696.109934150358</v>
+        <v>378356.422348761</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11180.68250614917</v>
+        <v>148112.6208393045</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45870.36476769578</v>
+        <v>25963.79402469937</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2063.826672208263</v>
+        <v>392052.6472367486</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11757.4994383934</v>
+        <v>143947.5582096695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45933.8444862105</v>
+        <v>25436.55219081946</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2185.073654493026</v>
+        <v>406953.048195092</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12039.54489801964</v>
+        <v>139078.0071161124</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45957.67223089654</v>
+        <v>24920.9056933989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2249.855545025435</v>
+        <v>418357.3400006136</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346.23959020583</v>
+        <v>13346.23959020585</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7210.999170734332</v>
+        <v>449.5389801430069</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449.5389801430069</v>
+        <v>7211.073510992168</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12423.79709458747</v>
+        <v>132417.3666005712</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45958.72136877198</v>
+        <v>24266.31188229844</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2335.95305326808</v>
+        <v>425911.0390721578</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12312.33456671867</v>
+        <v>120508.0303070659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45935.11031378619</v>
+        <v>22868.28812093567</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2297.153085545462</v>
+        <v>429456.3822413571</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10290.89969686815</v>
+        <v>98491.90219875798</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41813.66550106835</v>
+        <v>19786.43269441446</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1838.243780103687</v>
+        <v>424981.3675036393</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11384.1775167149</v>
+        <v>75059.28068910935</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41717.3532281043</v>
+        <v>16466.72017416137</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2005.907329251291</v>
+        <v>420883.431333648</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14129.36042145314</v>
+        <v>59646.36890942324</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41591.95228039939</v>
+        <v>14414.4967783725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2490.512637045817</v>
+        <v>413586.9164807657</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15419.19016689504</v>
+        <v>52819.71619674028</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41463.657075027</v>
+        <v>13540.97167017672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2700.05852306122</v>
+        <v>403783.3124164445</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12905.99771353463</v>
+        <v>49455.80840346054</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41369.97117893025</v>
+        <v>12857.91399705858</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2359.946540069941</v>
+        <v>392332.3307586554</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9479.080097230384</v>
+        <v>45686.59263270698</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37081.64154115133</v>
+        <v>11750.58430690918</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1889.535760641447</v>
+        <v>375937.5956323268</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10009.14263073285</v>
+        <v>44434.59946940653</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37153.88337318879</v>
+        <v>10863.55328094331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1983.440550584171</v>
+        <v>364133.9177133497</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10941.1932709259</v>
+        <v>46406.20067558973</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37318.46530366316</v>
+        <v>10371.31215802272</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2055.104996747628</v>
+        <v>353601.3377343304</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317.58763503887</v>
+        <v>11317.58763503996</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22035.71467036803</v>
+        <v>602.1347807422512</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602.1347807422444</v>
+        <v>22035.94077719485</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10786.12825316796</v>
+        <v>52591.35773072252</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37547.06674335804</v>
+        <v>10557.1895253947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2027.18101808225</v>
+        <v>345145.7066722857</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10116.9788747197</v>
+        <v>63310.01076402888</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37792.79146532714</v>
+        <v>11678.83004390472</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1997.455895579071</v>
+        <v>339366.0826747781</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8280.099699258339</v>
+        <v>76902.51110621728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33193.01489940379</v>
+        <v>13590.79879539571</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1679.867416373803</v>
+        <v>331805.4359447276</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7567.367492594291</v>
+        <v>94802.25849906076</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33328.50567208976</v>
+        <v>16559.87599732517</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1436.110285795759</v>
+        <v>332188.0607478851</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6668.585169146769</v>
+        <v>114269.3311509998</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33365.38921658229</v>
+        <v>19961.21516979003</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1140.651970374165</v>
+        <v>335571.0633540768</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5541.815768752713</v>
+        <v>132948.953358823</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33301.82722431608</v>
+        <v>23264.84169181739</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>922.2436996747274</v>
+        <v>341625.6240212787</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4915.77393832989</v>
+        <v>147950.1386719411</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33152.68743283674</v>
+        <v>25919.03267128748</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>873.3353049569996</v>
+        <v>349871.567407446</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4186.990438336972</v>
+        <v>155055.4397866754</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26366.91515165754</v>
+        <v>27162.40077698731</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>777.9631680727471</v>
+        <v>353150.5190428123</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6805.260003298987</v>
+        <v>157515.555115229</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26123.38717174158</v>
+        <v>27621.06249579618</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1266.320872422482</v>
+        <v>363976.5726601128</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8731.144818837289</v>
+        <v>155762.6479568663</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25871.82751254551</v>
+        <v>27395.18729143048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1619.178213282954</v>
+        <v>375127.0385721326</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Photovoltaic plants</t>
+  </si>
+  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Offshore wind plants</t>
-  </si>
-  <si>
-    <t>Photovoltaic plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980.06165843343</v>
+        <v>25938.45315556641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1377.486416224058</v>
+        <v>17980.06165843343</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25938.45315556641</v>
+        <v>1377.486416224058</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>151757.9556369632</v>
+        <v>385984.9877174739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26864.27554940042</v>
+        <v>151757.9556369632</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>385984.9877174739</v>
+        <v>26864.27554940042</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>146384.3514532503</v>
+        <v>395997.1510460842</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26211.49460044911</v>
+        <v>146384.3514532503</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>395997.1510460842</v>
+        <v>26211.49460044911</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245.59368707854</v>
+        <v>54025.76506790129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1729.281599862794</v>
+        <v>13245.59368707854</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54025.76506790129</v>
+        <v>1729.281599862794</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164.42398226922</v>
+        <v>81400.32061419905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535.9404637455591</v>
+        <v>14164.42398226922</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81400.32061419905</v>
+        <v>535.9404637455591</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179.25206601215</v>
+        <v>47744.90543532529</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1316.954503440213</v>
+        <v>15179.25206601215</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47744.90543532529</v>
+        <v>1316.954503440213</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469.1654263869</v>
+        <v>23805.45859660057</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4284.928396832054</v>
+        <v>12469.1654263869</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23805.45859660057</v>
+        <v>4284.928396832054</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15231.76872957087</v>
+        <v>14522.58933646951</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2265.418378735085</v>
+        <v>15231.76872957087</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14522.58933646951</v>
+        <v>2265.418378735085</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13315.18745783824</v>
+        <v>13672.14556387637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.28879767143</v>
+        <v>13315.18745783824</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13672.14556387637</v>
+        <v>11327.28879767143</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13702.52901390451</v>
+        <v>9692.029235733818</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5279.292249704253</v>
+        <v>13702.52901390451</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9692.029235733818</v>
+        <v>5279.292249704253</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13840.88764678061</v>
+        <v>7943.6551642462</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6118.551102416804</v>
+        <v>13840.88764678061</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7943.6551642462</v>
+        <v>6118.551102416804</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9122.836520385667</v>
+        <v>10385.35673989711</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7032.912240152422</v>
+        <v>9122.836520385667</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10385.35673989711</v>
+        <v>7032.912240152422</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7846.528544909441</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37.117897443</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407.7534801982089</v>
+        <v>37.117897443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11111.06302655188</v>
+        <v>19037.02000269132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4982.896990039088</v>
+        <v>11111.06302655188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19037.02000269132</v>
+        <v>4982.896990039088</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8984.851328296791</v>
+        <v>16903.28317231846</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6794.686275198197</v>
+        <v>8984.851328296791</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16903.28317231846</v>
+        <v>6794.686275198197</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12597.04260282099</v>
+        <v>21479.59752336062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1454.54555951785</v>
+        <v>12597.04260282099</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21479.59752336062</v>
+        <v>1454.54555951785</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17435.75330380467</v>
+        <v>27297.53626932495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2379.437435938249</v>
+        <v>17435.75330380467</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27297.53626932495</v>
+        <v>2379.437435938249</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44815.06856983752</v>
+        <v>172416.8497156715</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7727.607686475742</v>
+        <v>44815.06856983752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>172416.8497156715</v>
+        <v>7727.607686475742</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47926.05775988204</v>
+        <v>173459.8095952904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7896.215498744321</v>
+        <v>47926.05775988204</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>173459.8095952904</v>
+        <v>7896.215498744321</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49783.18583186669</v>
+        <v>174747.4678735821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8085.879402557584</v>
+        <v>49783.18583186669</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>174747.4678735821</v>
+        <v>8085.879402557584</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140868.0182928382</v>
+        <v>548027.2578735575</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24867.73989618044</v>
+        <v>140868.0182928382</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>548027.2578735575</v>
+        <v>24867.73989618044</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141597.8327870083</v>
+        <v>549843.8984648788</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24677.67860980325</v>
+        <v>141597.8327870083</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>549843.8984648788</v>
+        <v>24677.67860980325</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142557.0079367376</v>
+        <v>551919.0227576825</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24643.6792937447</v>
+        <v>142557.0079367376</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>551919.0227576825</v>
+        <v>24643.6792937447</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9671.167627441413</v>
+        <v>344.2031637569753</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>676.3705756279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344.2031637569753</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>143627.3644563692</v>
+        <v>554227.9037718717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24828.53226487397</v>
+        <v>143627.3644563692</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>554227.9037718717</v>
+        <v>24828.53226487397</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>144660.534181704</v>
+        <v>556731.3786079739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25049.69482362139</v>
+        <v>144660.534181704</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>556731.3786079739</v>
+        <v>25049.69482362139</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131782.4960095</v>
+        <v>534906.2194941896</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22787.40308450669</v>
+        <v>131782.4960095</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>534906.2194941896</v>
+        <v>22787.40308450669</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132674.0968200304</v>
+        <v>537653.2437858433</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23116.42483252558</v>
+        <v>132674.0968200304</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>537653.2437858433</v>
+        <v>23116.42483252558</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132455.4133390964</v>
+        <v>540465.4210512098</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23308.57425864067</v>
+        <v>132455.4133390964</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>540465.4210512098</v>
+        <v>23308.57425864067</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132050.9540726601</v>
+        <v>543348.2358288188</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23552.99338370672</v>
+        <v>132050.9540726601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543348.2358288188</v>
+        <v>23552.99338370672</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132048.3687874426</v>
+        <v>546372.4018217847</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24477.38962583191</v>
+        <v>132048.3687874426</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>546372.4018217847</v>
+        <v>24477.38962583191</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28570.98122489778</v>
+        <v>115483.0291206278</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6847.222093995719</v>
+        <v>28570.98122489778</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>115483.0291206278</v>
+        <v>6847.222093995719</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28555.79085573158</v>
+        <v>119406.8458949588</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8354.538214316592</v>
+        <v>28555.79085573158</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>119406.8458949588</v>
+        <v>8354.538214316592</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28270.27146522724</v>
+        <v>124344.7042936506</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9752.76226304291</v>
+        <v>28270.27146522724</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>124344.7042936506</v>
+        <v>9752.76226304291</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7676.332671315526</v>
+        <v>971.0971607599638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>863.6097471737995</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971.0971607599638</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27650.22910281341</v>
+        <v>130846.2916843053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9474.39932342415</v>
+        <v>27650.22910281341</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>130846.2916843053</v>
+        <v>9474.39932342415</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26773.93498362717</v>
+        <v>139556.5393982548</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8808.175489955058</v>
+        <v>26773.93498362717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139556.5393982548</v>
+        <v>8808.175489955058</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11801.53084685747</v>
+        <v>69018.47698623035</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6082.923062054906</v>
+        <v>11801.53084685747</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>69018.47698623035</v>
+        <v>6082.923062054906</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12245.63379654288</v>
+        <v>84138.24449381977</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5490.039944416203</v>
+        <v>12245.63379654288</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>84138.24449381977</v>
+        <v>5490.039944416203</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14789.80717630452</v>
+        <v>103271.9513053801</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4763.103802167345</v>
+        <v>14789.80717630452</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103271.9513053801</v>
+        <v>4763.103802167345</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20956.66173975868</v>
+        <v>126682.3064463697</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4174.852729033795</v>
+        <v>20956.66173975868</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>126682.3064463697</v>
+        <v>4174.852729033795</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32344.49336337321</v>
+        <v>154325.3320433535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5253.538528213918</v>
+        <v>32344.49336337321</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154325.3320433535</v>
+        <v>5253.538528213918</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48198.54244355718</v>
+        <v>185794.9889920503</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8070.736861968355</v>
+        <v>48198.54244355718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>185794.9889920503</v>
+        <v>8070.736861968355</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>66044.32960489788</v>
+        <v>220292.7773627983</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11213.29973932425</v>
+        <v>66044.32960489788</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>220292.7773627983</v>
+        <v>11213.29973932425</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91618.78745175549</v>
+        <v>256626.0825850312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15753.44763112738</v>
+        <v>91618.78745175549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>256626.0825850312</v>
+        <v>15753.44763112738</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10163.62184563424</v>
+        <v>2894.025055082801</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103.9301128404004</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894.025055082801</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>124340.0680778075</v>
+        <v>293242.1488960115</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21638.84549655084</v>
+        <v>124340.0680778075</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>293242.1488960115</v>
+        <v>21638.84549655084</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141285.2037009636</v>
+        <v>328307.1693764683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24592.46003939077</v>
+        <v>141285.2037009636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>328307.1693764683</v>
+        <v>24592.46003939077</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142868.4326420445</v>
+        <v>359837.4716405775</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24761.8796683551</v>
+        <v>142868.4326420445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>359837.4716405775</v>
+        <v>24761.8796683551</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142114.3932239299</v>
+        <v>385879.946305586</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24612.43834403204</v>
+        <v>142114.3932239299</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>385879.946305586</v>
+        <v>24612.43834403204</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139264.4616638052</v>
+        <v>404723.8385585155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24165.08323386143</v>
+        <v>139264.4616638052</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>404723.8385585155</v>
+        <v>24165.08323386143</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>134623.0821859732</v>
+        <v>415111.5101987766</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23464.76404123526</v>
+        <v>134623.0821859732</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>415111.5101987766</v>
+        <v>23464.76404123526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130898.0367213835</v>
+        <v>471804.6978974557</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23031.60121237708</v>
+        <v>130898.0367213835</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>471804.6978974557</v>
+        <v>23031.60121237708</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>125867.0876399919</v>
+        <v>479767.2943723351</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22512.06888500066</v>
+        <v>125867.0876399919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>479767.2943723351</v>
+        <v>22512.06888500066</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130537.6364759156</v>
+        <v>463846.1058890931</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24056.44597986346</v>
+        <v>130537.6364759156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>463846.1058890931</v>
+        <v>24056.44597986346</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103339.5143332328</v>
+        <v>441138.0997319184</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20054.84639238106</v>
+        <v>103339.5143332328</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>441138.0997319184</v>
+        <v>20054.84639238106</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9696.589980632714</v>
+        <v>3986.223732200622</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.273736754432321E-13</v>
+        <v>9696.589980632714</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986.223732200622</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>66795.94705762132</v>
+        <v>413535.1273299791</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14554.50930459704</v>
+        <v>66795.94705762132</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>413535.1273299791</v>
+        <v>14554.50930459704</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47706.773632742</v>
+        <v>383213.4588276288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12171.25169183098</v>
+        <v>47706.773632742</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>383213.4588276288</v>
+        <v>12171.25169183098</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43127.80908617005</v>
+        <v>344401.6112809032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12006.03851084982</v>
+        <v>43127.80908617005</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344401.6112809032</v>
+        <v>12006.03851084982</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>40898.49474859145</v>
+        <v>315409.3817799473</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11632.99203990138</v>
+        <v>40898.49474859145</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>315409.3817799473</v>
+        <v>11632.99203990138</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>36914.066940594</v>
+        <v>290177.0594164673</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10550.40547225968</v>
+        <v>36914.066940594</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>290177.0594164673</v>
+        <v>10550.40547225968</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32491.86261585797</v>
+        <v>270325.4733778657</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9233.262260338292</v>
+        <v>32491.86261585797</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>270325.4733778657</v>
+        <v>9233.262260338292</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32273.66828029603</v>
+        <v>256976.6457822379</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8379.482881665695</v>
+        <v>32273.66828029603</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>256976.6457822379</v>
+        <v>8379.482881665695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35209.71001402824</v>
+        <v>242726.4205521541</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7791.935701778682</v>
+        <v>35209.71001402824</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>242726.4205521541</v>
+        <v>7791.935701778682</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44187.95533481822</v>
+        <v>243391.2390564233</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8324.485229643469</v>
+        <v>44187.95533481822</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>243391.2390564233</v>
+        <v>8324.485229643469</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>57472.54958482808</v>
+        <v>250440.890405111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10029.13041614258</v>
+        <v>57472.54958482808</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>250440.890405111</v>
+        <v>10029.13041614258</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11614.23185738789</v>
+        <v>3868.311143512359</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>445.4147693159996</v>
+        <v>11614.23185738789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868.311143512359</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>74800.21481244452</v>
+        <v>262902.4473182308</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12907.47104821773</v>
+        <v>74800.21481244452</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>262902.4473182308</v>
+        <v>12907.47104821773</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>95619.45909680449</v>
+        <v>279589.5256435033</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16586.60510532727</v>
+        <v>95619.45909680449</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>279589.5256435033</v>
+        <v>16586.60510532727</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117214.905008025</v>
+        <v>293278.0468448326</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20412.44026216649</v>
+        <v>117214.905008025</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>293278.0468448326</v>
+        <v>20412.44026216649</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138108.2437243562</v>
+        <v>314685.8677939167</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24121.41007011733</v>
+        <v>138108.2437243562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>314685.8677939167</v>
+        <v>24121.41007011733</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150425.1978878637</v>
+        <v>336691.4519069036</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26278.1284463263</v>
+        <v>150425.1978878637</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>336691.4519069036</v>
+        <v>26278.1284463263</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>153653.6440154181</v>
+        <v>358234.5636864807</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26818.94343034516</v>
+        <v>153653.6440154181</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>358234.5636864807</v>
+        <v>26818.94343034516</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>152317.9981350719</v>
+        <v>378356.422348761</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26607.54334631341</v>
+        <v>152317.9981350719</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>378356.422348761</v>
+        <v>26607.54334631341</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>148112.6208393045</v>
+        <v>392052.6472367486</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25963.79402469937</v>
+        <v>148112.6208393045</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>392052.6472367486</v>
+        <v>25963.79402469937</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>143947.5582096695</v>
+        <v>406953.048195092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25436.55219081946</v>
+        <v>143947.5582096695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>406953.048195092</v>
+        <v>25436.55219081946</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139078.0071161124</v>
+        <v>418357.3400006136</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24920.9056933989</v>
+        <v>139078.0071161124</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>418357.3400006136</v>
+        <v>24920.9056933989</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346.23959020585</v>
+        <v>7211.073510992168</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>449.5389801430069</v>
+        <v>13346.23959020585</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7211.073510992168</v>
+        <v>449.5389801430069</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132417.3666005712</v>
+        <v>425911.0390721578</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24266.31188229844</v>
+        <v>132417.3666005712</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>425911.0390721578</v>
+        <v>24266.31188229844</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>120508.0303070659</v>
+        <v>429456.3822413571</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22868.28812093567</v>
+        <v>120508.0303070659</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>429456.3822413571</v>
+        <v>22868.28812093567</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>98491.90219875798</v>
+        <v>424981.3675036393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19786.43269441446</v>
+        <v>98491.90219875798</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>424981.3675036393</v>
+        <v>19786.43269441446</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>75059.28068910935</v>
+        <v>420883.431333648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16466.72017416137</v>
+        <v>75059.28068910935</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>420883.431333648</v>
+        <v>16466.72017416137</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59646.36890942324</v>
+        <v>413586.9164807657</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14414.4967783725</v>
+        <v>59646.36890942324</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>413586.9164807657</v>
+        <v>14414.4967783725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>52819.71619674028</v>
+        <v>403783.3124164445</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13540.97167017672</v>
+        <v>52819.71619674028</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>403783.3124164445</v>
+        <v>13540.97167017672</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49455.80840346054</v>
+        <v>392332.3307586554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12857.91399705858</v>
+        <v>49455.80840346054</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>392332.3307586554</v>
+        <v>12857.91399705858</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>45686.59263270698</v>
+        <v>375937.5956323268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11750.58430690918</v>
+        <v>45686.59263270698</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>375937.5956323268</v>
+        <v>11750.58430690918</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44434.59946940653</v>
+        <v>364133.9177133497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10863.55328094331</v>
+        <v>44434.59946940653</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>364133.9177133497</v>
+        <v>10863.55328094331</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46406.20067558973</v>
+        <v>353601.3377343304</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10371.31215802272</v>
+        <v>46406.20067558973</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>353601.3377343304</v>
+        <v>10371.31215802272</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317.58763503996</v>
+        <v>22035.94077719485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>602.1347807422512</v>
+        <v>11317.58763503996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22035.94077719485</v>
+        <v>602.1347807422512</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>52591.35773072252</v>
+        <v>345145.7066722857</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10557.1895253947</v>
+        <v>52591.35773072252</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>345145.7066722857</v>
+        <v>10557.1895253947</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>63310.01076402888</v>
+        <v>339366.0826747781</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11678.83004390472</v>
+        <v>63310.01076402888</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>339366.0826747781</v>
+        <v>11678.83004390472</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76902.51110621728</v>
+        <v>331805.4359447276</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13590.79879539571</v>
+        <v>76902.51110621728</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>331805.4359447276</v>
+        <v>13590.79879539571</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>94802.25849906076</v>
+        <v>332188.0607478851</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16559.87599732517</v>
+        <v>94802.25849906076</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>332188.0607478851</v>
+        <v>16559.87599732517</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>114269.3311509998</v>
+        <v>335571.0633540768</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19961.21516979003</v>
+        <v>114269.3311509998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>335571.0633540768</v>
+        <v>19961.21516979003</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132948.953358823</v>
+        <v>341625.6240212787</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23264.84169181739</v>
+        <v>132948.953358823</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>341625.6240212787</v>
+        <v>23264.84169181739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147950.1386719411</v>
+        <v>349871.567407446</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25919.03267128748</v>
+        <v>147950.1386719411</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>349871.567407446</v>
+        <v>25919.03267128748</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>155055.4397866754</v>
+        <v>353150.5190428123</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27162.40077698731</v>
+        <v>155055.4397866754</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>353150.5190428123</v>
+        <v>27162.40077698731</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>157515.555115229</v>
+        <v>363976.5726601128</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27621.06249579618</v>
+        <v>157515.555115229</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>363976.5726601128</v>
+        <v>27621.06249579618</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>155762.6479568663</v>
+        <v>375127.0385721326</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27395.18729143048</v>
+        <v>155762.6479568663</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>375127.0385721326</v>
+        <v>27395.18729143048</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -149,10 +149,10 @@
     <t>Photovoltaic plants</t>
   </si>
   <si>
-    <t>Onshore wind plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Onshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980.06165843343</v>
+        <v>1377.486416224058</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377.486416224058</v>
+        <v>17980.06165843343</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151757.9556369632</v>
+        <v>26864.27554940042</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26864.27554940042</v>
+        <v>151757.9556369632</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>146384.3514532503</v>
+        <v>26211.49460044911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26211.49460044911</v>
+        <v>146384.3514532503</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245.59368707854</v>
+        <v>1729.281599862794</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729.281599862794</v>
+        <v>13245.59368707854</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164.42398226922</v>
+        <v>535.9404637455591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535.9404637455591</v>
+        <v>14164.42398226922</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179.25206601215</v>
+        <v>1316.954503440213</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316.954503440213</v>
+        <v>15179.25206601215</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469.1654263869</v>
+        <v>4284.928396832054</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284.928396832054</v>
+        <v>12469.1654263869</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15231.76872957087</v>
+        <v>2265.418378735085</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265.418378735085</v>
+        <v>15231.76872957087</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13315.18745783824</v>
+        <v>11327.28879767143</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327.28879767143</v>
+        <v>13315.18745783824</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13702.52901390451</v>
+        <v>5279.292249704253</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279.292249704253</v>
+        <v>13702.52901390451</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13840.88764678061</v>
+        <v>6118.551102416804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6118.551102416804</v>
+        <v>13840.88764678061</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9122.836520385667</v>
+        <v>7032.912240152422</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7032.912240152422</v>
+        <v>9122.836520385667</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846.528544909441</v>
+        <v>37.117897443</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37.117897443</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11111.06302655188</v>
+        <v>4982.896990039088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4982.896990039088</v>
+        <v>11111.06302655188</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8984.851328296791</v>
+        <v>6794.686275198197</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6794.686275198197</v>
+        <v>8984.851328296791</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12597.04260282099</v>
+        <v>1454.54555951785</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1454.54555951785</v>
+        <v>12597.04260282099</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17435.75330380467</v>
+        <v>2379.437435938249</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2379.437435938249</v>
+        <v>17435.75330380467</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44815.06856983752</v>
+        <v>7727.607686475742</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7727.607686475742</v>
+        <v>44815.06856983752</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47926.05775988204</v>
+        <v>7896.215498744321</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7896.215498744321</v>
+        <v>47926.05775988204</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49783.18583186669</v>
+        <v>8085.879402557584</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8085.879402557584</v>
+        <v>49783.18583186669</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140868.0182928382</v>
+        <v>24867.73989618044</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24867.73989618044</v>
+        <v>140868.0182928382</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141597.8327870083</v>
+        <v>24677.67860980325</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24677.67860980325</v>
+        <v>141597.8327870083</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142557.0079367376</v>
+        <v>24643.6792937447</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24643.6792937447</v>
+        <v>142557.0079367376</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671.167627441413</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676.3705756279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143627.3644563692</v>
+        <v>24828.53226487397</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24828.53226487397</v>
+        <v>143627.3644563692</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144660.534181704</v>
+        <v>25049.69482362139</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25049.69482362139</v>
+        <v>144660.534181704</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131782.4960095</v>
+        <v>22787.40308450669</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22787.40308450669</v>
+        <v>131782.4960095</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132674.0968200304</v>
+        <v>23116.42483252558</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23116.42483252558</v>
+        <v>132674.0968200304</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132455.4133390964</v>
+        <v>23308.57425864067</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23308.57425864067</v>
+        <v>132455.4133390964</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132050.9540726601</v>
+        <v>23552.99338370672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23552.99338370672</v>
+        <v>132050.9540726601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132048.3687874426</v>
+        <v>24477.38962583191</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24477.38962583191</v>
+        <v>132048.3687874426</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28570.98122489778</v>
+        <v>6847.222093995719</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6847.222093995719</v>
+        <v>28570.98122489778</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28555.79085573158</v>
+        <v>8354.538214316592</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8354.538214316592</v>
+        <v>28555.79085573158</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28270.27146522724</v>
+        <v>9752.76226304291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9752.76226304291</v>
+        <v>28270.27146522724</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676.332671315526</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863.6097471737995</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27650.22910281341</v>
+        <v>9474.39932342415</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9474.39932342415</v>
+        <v>27650.22910281341</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26773.93498362717</v>
+        <v>8808.175489955058</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8808.175489955058</v>
+        <v>26773.93498362717</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11801.53084685747</v>
+        <v>6082.923062054906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6082.923062054906</v>
+        <v>11801.53084685747</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12245.63379654288</v>
+        <v>5490.039944416203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5490.039944416203</v>
+        <v>12245.63379654288</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14789.80717630452</v>
+        <v>4763.103802167345</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4763.103802167345</v>
+        <v>14789.80717630452</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20956.66173975868</v>
+        <v>4174.852729033795</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4174.852729033795</v>
+        <v>20956.66173975868</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32344.49336337321</v>
+        <v>5253.538528213918</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5253.538528213918</v>
+        <v>32344.49336337321</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48198.54244355718</v>
+        <v>8070.736861968355</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8070.736861968355</v>
+        <v>48198.54244355718</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66044.32960489788</v>
+        <v>11213.29973932425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11213.29973932425</v>
+        <v>66044.32960489788</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>91618.78745175549</v>
+        <v>15753.44763112738</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15753.44763112738</v>
+        <v>91618.78745175549</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163.62184563424</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103.9301128404004</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124340.0680778075</v>
+        <v>21638.84549655084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21638.84549655084</v>
+        <v>124340.0680778075</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141285.2037009636</v>
+        <v>24592.46003939077</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24592.46003939077</v>
+        <v>141285.2037009636</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142868.4326420445</v>
+        <v>24761.8796683551</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24761.8796683551</v>
+        <v>142868.4326420445</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142114.3932239299</v>
+        <v>24612.43834403204</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24612.43834403204</v>
+        <v>142114.3932239299</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139264.4616638052</v>
+        <v>24165.08323386143</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24165.08323386143</v>
+        <v>139264.4616638052</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>134623.0821859732</v>
+        <v>23464.76404123526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23464.76404123526</v>
+        <v>134623.0821859732</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>130898.0367213835</v>
+        <v>23031.60121237708</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23031.60121237708</v>
+        <v>130898.0367213835</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>125867.0876399919</v>
+        <v>22512.06888500066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22512.06888500066</v>
+        <v>125867.0876399919</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>130537.6364759156</v>
+        <v>24056.44597986346</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24056.44597986346</v>
+        <v>130537.6364759156</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103339.5143332328</v>
+        <v>20054.84639238106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20054.84639238106</v>
+        <v>103339.5143332328</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696.589980632714</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.273736754432321E-13</v>
+        <v>9696.589980632714</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66795.94705762132</v>
+        <v>14554.50930459704</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14554.50930459704</v>
+        <v>66795.94705762132</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47706.773632742</v>
+        <v>12171.25169183098</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12171.25169183098</v>
+        <v>47706.773632742</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43127.80908617005</v>
+        <v>12006.03851084982</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12006.03851084982</v>
+        <v>43127.80908617005</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40898.49474859145</v>
+        <v>11632.99203990138</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11632.99203990138</v>
+        <v>40898.49474859145</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36914.066940594</v>
+        <v>10550.40547225968</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10550.40547225968</v>
+        <v>36914.066940594</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32491.86261585797</v>
+        <v>9233.262260338292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9233.262260338292</v>
+        <v>32491.86261585797</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32273.66828029603</v>
+        <v>8379.482881665695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8379.482881665695</v>
+        <v>32273.66828029603</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35209.71001402824</v>
+        <v>7791.935701778682</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7791.935701778682</v>
+        <v>35209.71001402824</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44187.95533481822</v>
+        <v>8324.485229643469</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8324.485229643469</v>
+        <v>44187.95533481822</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>57472.54958482808</v>
+        <v>10029.13041614258</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10029.13041614258</v>
+        <v>57472.54958482808</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614.23185738789</v>
+        <v>445.4147693159996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445.4147693159996</v>
+        <v>11614.23185738789</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74800.21481244452</v>
+        <v>12907.47104821773</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12907.47104821773</v>
+        <v>74800.21481244452</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>95619.45909680449</v>
+        <v>16586.60510532727</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16586.60510532727</v>
+        <v>95619.45909680449</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117214.905008025</v>
+        <v>20412.44026216649</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20412.44026216649</v>
+        <v>117214.905008025</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>138108.2437243562</v>
+        <v>24121.41007011733</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24121.41007011733</v>
+        <v>138108.2437243562</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>150425.1978878637</v>
+        <v>26278.1284463263</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26278.1284463263</v>
+        <v>150425.1978878637</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153653.6440154181</v>
+        <v>26818.94343034516</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26818.94343034516</v>
+        <v>153653.6440154181</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>152317.9981350719</v>
+        <v>26607.54334631341</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26607.54334631341</v>
+        <v>152317.9981350719</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>148112.6208393045</v>
+        <v>25963.79402469937</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25963.79402469937</v>
+        <v>148112.6208393045</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143947.5582096695</v>
+        <v>25436.55219081946</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25436.55219081946</v>
+        <v>143947.5582096695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139078.0071161124</v>
+        <v>24920.9056933989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24920.9056933989</v>
+        <v>139078.0071161124</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346.23959020585</v>
+        <v>449.5389801430069</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449.5389801430069</v>
+        <v>13346.23959020585</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132417.3666005712</v>
+        <v>24266.31188229844</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24266.31188229844</v>
+        <v>132417.3666005712</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>120508.0303070659</v>
+        <v>22868.28812093567</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22868.28812093567</v>
+        <v>120508.0303070659</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>98491.90219875798</v>
+        <v>19786.43269441446</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19786.43269441446</v>
+        <v>98491.90219875798</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>75059.28068910935</v>
+        <v>16466.72017416137</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16466.72017416137</v>
+        <v>75059.28068910935</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>59646.36890942324</v>
+        <v>14414.4967783725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14414.4967783725</v>
+        <v>59646.36890942324</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>52819.71619674028</v>
+        <v>13540.97167017672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13540.97167017672</v>
+        <v>52819.71619674028</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49455.80840346054</v>
+        <v>12857.91399705858</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12857.91399705858</v>
+        <v>49455.80840346054</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45686.59263270698</v>
+        <v>11750.58430690918</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11750.58430690918</v>
+        <v>45686.59263270698</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44434.59946940653</v>
+        <v>10863.55328094331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10863.55328094331</v>
+        <v>44434.59946940653</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46406.20067558973</v>
+        <v>10371.31215802272</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10371.31215802272</v>
+        <v>46406.20067558973</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317.58763503996</v>
+        <v>602.1347807422512</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602.1347807422512</v>
+        <v>11317.58763503996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>52591.35773072252</v>
+        <v>10557.1895253947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10557.1895253947</v>
+        <v>52591.35773072252</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>63310.01076402888</v>
+        <v>11678.83004390472</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11678.83004390472</v>
+        <v>63310.01076402888</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>76902.51110621728</v>
+        <v>13590.79879539571</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13590.79879539571</v>
+        <v>76902.51110621728</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>94802.25849906076</v>
+        <v>16559.87599732517</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16559.87599732517</v>
+        <v>94802.25849906076</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>114269.3311509998</v>
+        <v>19961.21516979003</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19961.21516979003</v>
+        <v>114269.3311509998</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132948.953358823</v>
+        <v>23264.84169181739</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23264.84169181739</v>
+        <v>132948.953358823</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>147950.1386719411</v>
+        <v>25919.03267128748</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25919.03267128748</v>
+        <v>147950.1386719411</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155055.4397866754</v>
+        <v>27162.40077698731</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27162.40077698731</v>
+        <v>155055.4397866754</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>157515.555115229</v>
+        <v>27621.06249579618</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27621.06249579618</v>
+        <v>157515.555115229</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155762.6479568663</v>
+        <v>27395.18729143048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27395.18729143048</v>
+        <v>155762.6479568663</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -146,10 +146,10 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Onshore wind plants</t>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25938.45315556641</v>
+        <v>1167.498580449405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1377.486416224058</v>
+        <v>21984.72365631576</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17980.06165843343</v>
+        <v>15239.13137419848</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>385984.9877174739</v>
+        <v>29131.90616857953</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26864.27554940042</v>
+        <v>419354.0391213447</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>151757.9556369632</v>
+        <v>162936.9369000304</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>395997.1510460842</v>
+        <v>28372.85415354802</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26211.49460044911</v>
+        <v>430250.0946235452</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>146384.3514532503</v>
+        <v>157041.8062301753</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>54025.76506790129</v>
+        <v>1542.060593777953</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1729.281599862794</v>
+        <v>48177.28458366616</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13245.59368707854</v>
+        <v>11811.55693452757</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>81400.32061419905</v>
+        <v>455.1539205711006</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535.9404637455591</v>
+        <v>69131.58273537549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14164.42398226922</v>
+        <v>12029.30840719993</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47744.90543532529</v>
+        <v>1211.758906049633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1316.954503440213</v>
+        <v>43932.50790387452</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15179.25206601215</v>
+        <v>13966.76515057057</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23805.45859660057</v>
+        <v>3814.114895055456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4284.928396832054</v>
+        <v>21192.45085941534</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12469.1654263869</v>
+        <v>11099.09798718154</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14522.58933646951</v>
+        <v>2015.894900935922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2265.418378735085</v>
+        <v>12926.74985373035</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15231.76872957087</v>
+        <v>13554.08628325319</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13672.14556387637</v>
+        <v>12069.23282503345</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.28879767143</v>
+        <v>14557.29774203591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13315.18745783824</v>
+        <v>14187.38505370161</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9692.029235733818</v>
+        <v>5638.304622634372</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5279.292249704253</v>
+        <v>10329.99242629201</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13702.52901390451</v>
+        <v>14634.55572365105</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7943.6551642462</v>
+        <v>6402.764419787916</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6118.551102416804</v>
+        <v>8279.197907197027</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13840.88764678061</v>
+        <v>14484.73829713441</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10385.35673989711</v>
+        <v>7039.97840488689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7032.912240152422</v>
+        <v>10356.31885699846</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9122.836520385667</v>
+        <v>9136.285553353286</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>407.7534801982089</v>
+        <v>48.99483028137564</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37.117897443</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7846.528544909441</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19037.02000269132</v>
+        <v>5262.079525805129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4982.896990039088</v>
+        <v>19999.87649926855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11111.06302655188</v>
+        <v>11745.6025597493</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16903.28317231846</v>
+        <v>7033.355129307376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6794.686275198197</v>
+        <v>17354.23656342606</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8984.851328296791</v>
+        <v>9344.123591222073</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21479.59752336062</v>
+        <v>1457.288030048425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1454.54555951785</v>
+        <v>21309.41386984718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12597.04260282099</v>
+        <v>12747.26059739699</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27297.53626932495</v>
+        <v>2675.061392248012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2379.437435938249</v>
+        <v>30150.67132322237</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17435.75330380467</v>
+        <v>19801.20407913387</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>172416.8497156715</v>
+        <v>8461.433108074416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7727.607686475742</v>
+        <v>187891.4591139147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44815.06856983752</v>
+        <v>49597.11036389857</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>173459.8095952904</v>
+        <v>8657.172143503791</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7896.215498744321</v>
+        <v>188807.5359805163</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47926.05775988204</v>
+        <v>53269.95820755861</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>174747.4678735821</v>
+        <v>8864.341417850577</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8085.879402557584</v>
+        <v>189938.2901703046</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49783.18583186669</v>
+        <v>54892.53103272821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>548027.2578735575</v>
+        <v>27182.10613732922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24867.73989618044</v>
+        <v>597708.1942060061</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140868.0182928382</v>
+        <v>153473.9239507864</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>549843.8984648788</v>
+        <v>26950.50883895114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24677.67860980325</v>
+        <v>599306.9422862022</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141597.8327870083</v>
+        <v>153450.2014303764</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>551919.0227576825</v>
+        <v>26893.4597324912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24643.6792937447</v>
+        <v>601139.1315721008</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142557.0079367376</v>
+        <v>154019.9584618424</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>344.2031637569753</v>
+        <v>845.5868443316413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>676.3705756279999</v>
+        <v>430.3168678263535</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9671.167627441413</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>554227.9037718717</v>
+        <v>27049.63022942102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24828.53226487397</v>
+        <v>603189.4226990808</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143627.3644563692</v>
+        <v>154657.2861687898</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>556731.3786079739</v>
+        <v>27229.81845167535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25049.69482362139</v>
+        <v>605433.66139499</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>144660.534181704</v>
+        <v>155138.2877179334</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>534906.2194941896</v>
+        <v>24686.1207240927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22787.40308450669</v>
+        <v>581086.6916768448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>131782.4960095</v>
+        <v>140640.0141605532</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>537653.2437858433</v>
+        <v>24986.65407868911</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23116.42483252558</v>
+        <v>583643.236104914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132674.0968200304</v>
+        <v>141560.6339002305</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>540465.4210512098</v>
+        <v>25184.94575781317</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23308.57425864067</v>
+        <v>586345.9174561929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132455.4133390964</v>
+        <v>141632.3578223591</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>543348.2358288188</v>
+        <v>25442.02045690565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23552.99338370672</v>
+        <v>589236.5434545362</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132050.9540726601</v>
+        <v>141457.0223765366</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>546372.4018217847</v>
+        <v>26348.45890817064</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24477.38962583191</v>
+        <v>592422.9260767912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132048.3687874426</v>
+        <v>141709.6635465219</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>115483.0291206278</v>
+        <v>6963.290557249624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6847.222093995719</v>
+        <v>121377.1923488127</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28570.98122489778</v>
+        <v>28934.4994243884</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119406.8458949588</v>
+        <v>8687.772734892787</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8354.538214316592</v>
+        <v>125871.1848638235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28555.79085573158</v>
+        <v>29449.86280290084</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>124344.7042936506</v>
+        <v>10350.90097632498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9752.76226304291</v>
+        <v>131620.6378475875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28270.27146522724</v>
+        <v>29963.21101190569</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>971.0971607599638</v>
+        <v>902.5247365629416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>863.6097471737995</v>
+        <v>1014.85575695881</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7676.332671315526</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130846.2916843053</v>
+        <v>10077.70870374318</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9474.39932342415</v>
+        <v>139190.6246828912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27650.22910281341</v>
+        <v>29694.47723719128</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139556.5393982548</v>
+        <v>9287.763455827022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8808.175489955058</v>
+        <v>149235.6214255523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26773.93498362717</v>
+        <v>28673.97239123331</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>69018.47698623035</v>
+        <v>6266.429552206188</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6082.923062054906</v>
+        <v>72642.49801752716</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11801.53084685747</v>
+        <v>12290.17605020246</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>84138.24449381977</v>
+        <v>5699.75764371478</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5490.039944416203</v>
+        <v>89647.54574177042</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12245.63379654288</v>
+        <v>12883.25060522556</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103271.9513053801</v>
+        <v>5001.048496641102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4763.103802167345</v>
+        <v>110949.331031234</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14789.80717630452</v>
+        <v>15781.85113298171</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>126682.3064463697</v>
+        <v>4465.87702229456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4174.852729033795</v>
+        <v>136812.1160453279</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20956.66173975868</v>
+        <v>22768.91111857351</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>154325.3320433535</v>
+        <v>5747.033652482147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5253.538528213918</v>
+        <v>167183.6025294689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32344.49336337321</v>
+        <v>35697.54553047218</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>185794.9889920503</v>
+        <v>8847.726078377746</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8070.736861968355</v>
+        <v>201630.3936301423</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48198.54244355718</v>
+        <v>53250.64276000182</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>220292.7773627983</v>
+        <v>12274.01566941239</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11213.29973932425</v>
+        <v>239298.2212604471</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>66044.32960489788</v>
+        <v>72577.94889918412</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>256626.0825850312</v>
+        <v>17226.08148426196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15753.44763112738</v>
+        <v>278903.725575991</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>91618.78745175549</v>
+        <v>100044.6478135695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2894.025055082801</v>
+        <v>98.7726955543053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103.9301128404004</v>
+        <v>2750.413800707392</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10163.62184563424</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>293242.1488960115</v>
+        <v>23638.01097087428</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21638.84549655084</v>
+        <v>318767.3592860978</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>124340.0680778075</v>
+        <v>135086.102425454</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>328307.1693764683</v>
+        <v>26838.29972170718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24592.46003939077</v>
+        <v>356898.4703804636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141285.2037009636</v>
+        <v>152909.4578083614</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>359837.4716405775</v>
+        <v>26987.89775535394</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24761.8796683551</v>
+        <v>391139.5644423421</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142868.4326420445</v>
+        <v>154071.8929771094</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>385879.946305586</v>
+        <v>26776.49756099237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24612.43834403204</v>
+        <v>419365.352551816</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142114.3932239299</v>
+        <v>152744.9458818475</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>404723.8385585155</v>
+        <v>26230.16135891498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24165.08323386143</v>
+        <v>439715.8607739275</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139264.4616638052</v>
+        <v>149202.5240683348</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>415111.5101987766</v>
+        <v>25408.58204348618</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23464.76404123526</v>
+        <v>450827.5410698755</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>134623.0821859732</v>
+        <v>143899.5514835084</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>471804.6978974557</v>
+        <v>24890.27471273078</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23031.60121237708</v>
+        <v>512582.9639992397</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>130898.0367213835</v>
+        <v>139858.5955925777</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>479767.2943723351</v>
+        <v>24287.70687391894</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22512.06888500066</v>
+        <v>521092.3245534291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>125867.0876399919</v>
+        <v>134582.5203450969</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>463846.1058890931</v>
+        <v>25934.51694813551</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24056.44597986346</v>
+        <v>503531.1786037898</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>130537.6364759156</v>
+        <v>139988.0910751389</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>441138.0997319184</v>
+        <v>21507.97222123505</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20054.84639238106</v>
+        <v>478599.9918546649</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103339.5143332328</v>
+        <v>110598.1647859071</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3986.223732200622</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.273736754432321E-13</v>
+        <v>3787.809826203911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9696.589980632714</v>
+        <v>9213.925933867096</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>413535.1273299791</v>
+        <v>15473.80223760358</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14554.50930459704</v>
+        <v>448372.593458714</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>66795.94705762132</v>
+        <v>71079.38355603535</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>383213.4588276288</v>
+        <v>12909.80493581458</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12171.25169183098</v>
+        <v>415230.208985433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47706.773632742</v>
+        <v>50728.24337991886</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>344401.6112809032</v>
+        <v>12789.24365807266</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12006.03851084982</v>
+        <v>372861.0867980467</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43127.80908617005</v>
+        <v>46214.90172858839</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>315409.3817799473</v>
+        <v>12402.41365558456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11632.99203990138</v>
+        <v>341277.4981274419</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40898.49474859145</v>
+        <v>44068.63446712191</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>290177.0594164673</v>
+        <v>11210.49452650873</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10550.40547225968</v>
+        <v>313845.3667278728</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36914.066940594</v>
+        <v>39797.37435007049</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>270325.4733778657</v>
+        <v>9784.95427167922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9233.262260338292</v>
+        <v>292324.8492918015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32491.86261585797</v>
+        <v>35014.08999112342</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>256976.6457822379</v>
+        <v>8915.165702761151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8379.482881665695</v>
+        <v>277928.8755821222</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32273.66828029603</v>
+        <v>34894.40936457342</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>242726.4205521541</v>
+        <v>8362.169514421606</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7791.935701778682</v>
+        <v>262548.0593112549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35209.71001402824</v>
+        <v>38291.28989750706</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>243391.2390564233</v>
+        <v>9029.249791137292</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8324.485229643469</v>
+        <v>263460.3181644147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44187.95533481822</v>
+        <v>48347.05455450667</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>250440.890405111</v>
+        <v>10952.722048108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10029.13041614258</v>
+        <v>271327.3278334243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>57472.54958482808</v>
+        <v>63081.16127459612</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3868.311143512359</v>
+        <v>419.367027715833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>445.4147693159996</v>
+        <v>3642.116665421448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11614.23185738789</v>
+        <v>10935.034553782</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>262902.4473182308</v>
+        <v>14121.10311901162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12907.47104821773</v>
+        <v>285075.7073380966</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>74800.21481244452</v>
+        <v>82035.0518861392</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>279589.5256435033</v>
+        <v>18137.27882301272</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16586.60510532727</v>
+        <v>303402.0228882758</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>95619.45909680449</v>
+        <v>104514.6172659367</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>293278.0468448326</v>
+        <v>22302.30011599296</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20412.44026216649</v>
+        <v>318405.5023203604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>117214.905008025</v>
+        <v>127606.4735306639</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>314685.8677939167</v>
+        <v>26331.7077622193</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24121.41007011733</v>
+        <v>341804.5923203537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>138108.2437243562</v>
+        <v>149814.9597951646</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>336691.4519069036</v>
+        <v>28656.18947016686</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26278.1284463263</v>
+        <v>365817.2202614974</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>150425.1978878637</v>
+        <v>162661.3216764585</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>358234.5636864807</v>
+        <v>29206.24167760857</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26818.94343034516</v>
+        <v>389290.4936611718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153653.6440154181</v>
+        <v>165661.3720574458</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>378356.422348761</v>
+        <v>28926.63481255859</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26607.54334631341</v>
+        <v>411184.098966781</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>152317.9981350719</v>
+        <v>163779.1795718567</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>392052.6472367486</v>
+        <v>28170.87100816896</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25963.79402469937</v>
+        <v>426035.5992978681</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>148112.6208393045</v>
+        <v>158894.3982779044</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>406953.048195092</v>
+        <v>27545.03745403967</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25436.55219081946</v>
+        <v>442195.5602846313</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143947.5582096695</v>
+        <v>154234.4761368642</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>418357.3400006136</v>
+        <v>26938.04259616678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24920.9056933989</v>
+        <v>454533.8132314272</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139078.0071161124</v>
+        <v>148996.0982598071</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7211.073510992168</v>
+        <v>387.7656110908511</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>449.5389801430069</v>
+        <v>6220.242431862596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13346.23959020585</v>
+        <v>11512.26696473561</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>425911.0390721578</v>
+        <v>26184.11529742222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24266.31188229844</v>
+        <v>462670.5873308983</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132417.3666005712</v>
+        <v>141947.3391012955</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>429456.3822413571</v>
+        <v>24621.07588221098</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22868.28812093567</v>
+        <v>466440.056332279</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>120508.0303070659</v>
+        <v>129250.3584697451</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>424981.3675036393</v>
+        <v>21228.39087967481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19786.43269441446</v>
+        <v>461461.257184675</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>98491.90219875798</v>
+        <v>105564.4723549546</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>420883.431333648</v>
+        <v>17601.11062653887</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16466.72017416137</v>
+        <v>456918.8378416356</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>75059.28068910935</v>
+        <v>80376.79465349112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>413586.9164807657</v>
+        <v>15386.19420139852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14414.4967783725</v>
+        <v>448905.8281451631</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>59646.36890942324</v>
+        <v>63962.12443513377</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>403783.3124164445</v>
+        <v>14466.22424627165</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13540.97167017672</v>
+        <v>438178.873026723</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>52819.71619674028</v>
+        <v>56863.86405245913</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>392332.3307586554</v>
+        <v>13742.73205103446</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12857.91399705858</v>
+        <v>425676.9507206418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49455.80840346054</v>
+        <v>53423.23000371223</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>375937.5956323268</v>
+        <v>12551.24688180047</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11750.58430690918</v>
+        <v>407793.7504629418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45686.59263270698</v>
+        <v>49433.22287431825</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>364133.9177133497</v>
+        <v>11617.9746457109</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10863.55328094331</v>
+        <v>394949.837286992</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44434.59946940653</v>
+        <v>48169.9807307953</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>353601.3377343304</v>
+        <v>11141.55647128617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10371.31215802272</v>
+        <v>383510.7438149974</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46406.20067558973</v>
+        <v>50463.79730393086</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22035.94077719485</v>
+        <v>483.9729262989381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>602.1347807422512</v>
+        <v>17711.86389947938</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11317.58763503996</v>
+        <v>9096.644441685086</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>345145.7066722857</v>
+        <v>11418.20663175767</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10557.1895253947</v>
+        <v>374351.9638484791</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>52591.35773072252</v>
+        <v>57394.86705885641</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>339366.0826747781</v>
+        <v>12708.8875604872</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11678.83004390472</v>
+        <v>368122.5379138235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>63310.01076402888</v>
+        <v>69264.01117334282</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>331805.4359447276</v>
+        <v>14840.23809335305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13590.79879539571</v>
+        <v>359943.7687719017</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>76902.51110621728</v>
+        <v>84174.28464363469</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>332188.0607478851</v>
+        <v>18100.06568132777</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16559.87599732517</v>
+        <v>360441.6495975908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>94802.25849906076</v>
+        <v>103608.648331631</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>335571.0633540768</v>
+        <v>21810.96339433634</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19961.21516979003</v>
+        <v>364207.4681157358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>114269.3311509998</v>
+        <v>124544.227640151</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>341625.6240212787</v>
+        <v>25401.92115808249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23264.84169181739</v>
+        <v>370878.0737635735</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132948.953358823</v>
+        <v>144458.6730060177</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>349871.567407446</v>
+        <v>28274.23486704979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25919.03267128748</v>
+        <v>379926.0882313997</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>147950.1386719411</v>
+        <v>160287.1751069427</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>353150.5190428123</v>
+        <v>29596.75225888792</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27162.40077698731</v>
+        <v>383524.2835842334</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155055.4397866754</v>
+        <v>167511.0582056735</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>363976.5726601128</v>
+        <v>30055.0134539915</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27621.06249579618</v>
+        <v>395354.4615606535</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>157515.555115229</v>
+        <v>169746.0456683771</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>375127.0385721326</v>
+        <v>29760.62080265174</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27395.18729143048</v>
+        <v>407521.6737693101</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155762.6479568663</v>
+        <v>167498.5855731866</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
-  </si>
-  <si>
     <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Onshore wind plants</t>
+  </si>
+  <si>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1167.498580449405</v>
+        <v>21984.72365631576</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21984.72365631576</v>
+        <v>15239.13137419848</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15239.13137419848</v>
+        <v>1167.498580449405</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29131.90616857953</v>
+        <v>419354.0391213447</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>419354.0391213447</v>
+        <v>162936.9369000304</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>162936.9369000304</v>
+        <v>29131.90616857953</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28372.85415354802</v>
+        <v>430250.0946235452</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>430250.0946235452</v>
+        <v>157041.8062301753</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>157041.8062301753</v>
+        <v>28372.85415354802</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1542.060593777953</v>
+        <v>48177.28458366616</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48177.28458366616</v>
+        <v>11811.55693452757</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11811.55693452757</v>
+        <v>1542.060593777953</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>455.1539205711006</v>
+        <v>69131.58273537549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>69131.58273537549</v>
+        <v>12029.30840719993</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12029.30840719993</v>
+        <v>455.1539205711006</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1211.758906049633</v>
+        <v>43932.50790387452</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43932.50790387452</v>
+        <v>13966.76515057057</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13966.76515057057</v>
+        <v>1211.758906049633</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3814.114895055456</v>
+        <v>21192.45085941534</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21192.45085941534</v>
+        <v>11099.09798718154</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11099.09798718154</v>
+        <v>3814.114895055456</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2015.894900935922</v>
+        <v>12926.74985373035</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12926.74985373035</v>
+        <v>13554.08628325319</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13554.08628325319</v>
+        <v>2015.894900935922</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12069.23282503345</v>
+        <v>14557.29774203591</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14557.29774203591</v>
+        <v>14187.38505370161</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14187.38505370161</v>
+        <v>12069.23282503345</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5638.304622634372</v>
+        <v>10329.99242629201</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10329.99242629201</v>
+        <v>14634.55572365105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14634.55572365105</v>
+        <v>5638.304622634372</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6402.764419787916</v>
+        <v>8279.197907197027</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8279.197907197027</v>
+        <v>14484.73829713441</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14484.73829713441</v>
+        <v>6402.764419787916</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7039.97840488689</v>
+        <v>10356.31885699846</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10356.31885699846</v>
+        <v>9136.285553353286</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9136.285553353286</v>
+        <v>7039.97840488689</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48.99483028137564</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>538.2258677132877</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10357.24975926156</v>
+        <v>48.99483028137564</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5262.079525805129</v>
+        <v>19999.87649926855</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19999.87649926855</v>
+        <v>11745.6025597493</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11745.6025597493</v>
+        <v>5262.079525805129</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7033.355129307376</v>
+        <v>17354.23656342606</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17354.23656342606</v>
+        <v>9344.123591222073</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9344.123591222073</v>
+        <v>7033.355129307376</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1457.288030048425</v>
+        <v>21309.41386984718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21309.41386984718</v>
+        <v>12747.26059739699</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12747.26059739699</v>
+        <v>1457.288030048425</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2675.061392248012</v>
+        <v>30150.67132322237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30150.67132322237</v>
+        <v>19801.20407913387</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19801.20407913387</v>
+        <v>2675.061392248012</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8461.433108074416</v>
+        <v>187891.4591139147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>187891.4591139147</v>
+        <v>49597.11036389857</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49597.11036389857</v>
+        <v>8461.433108074416</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8657.172143503791</v>
+        <v>188807.5359805163</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>188807.5359805163</v>
+        <v>53269.95820755861</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>53269.95820755861</v>
+        <v>8657.172143503791</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8864.341417850577</v>
+        <v>189938.2901703046</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>189938.2901703046</v>
+        <v>54892.53103272821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54892.53103272821</v>
+        <v>8864.341417850577</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27182.10613732922</v>
+        <v>597708.1942060061</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>597708.1942060061</v>
+        <v>153473.9239507864</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153473.9239507864</v>
+        <v>27182.10613732922</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26950.50883895114</v>
+        <v>599306.9422862022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>599306.9422862022</v>
+        <v>153450.2014303764</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153450.2014303764</v>
+        <v>26950.50883895114</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26893.4597324912</v>
+        <v>601139.1315721008</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>601139.1315721008</v>
+        <v>154019.9584618424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154019.9584618424</v>
+        <v>26893.4597324912</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>845.5868443316413</v>
+        <v>430.3168678263535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>430.3168678263535</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12090.72719861821</v>
+        <v>845.5868443316413</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27049.63022942102</v>
+        <v>603189.4226990808</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>603189.4226990808</v>
+        <v>154657.2861687898</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154657.2861687898</v>
+        <v>27049.63022942102</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27229.81845167535</v>
+        <v>605433.66139499</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>605433.66139499</v>
+        <v>155138.2877179334</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155138.2877179334</v>
+        <v>27229.81845167535</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24686.1207240927</v>
+        <v>581086.6916768448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>581086.6916768448</v>
+        <v>140640.0141605532</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140640.0141605532</v>
+        <v>24686.1207240927</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24986.65407868911</v>
+        <v>583643.236104914</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>583643.236104914</v>
+        <v>141560.6339002305</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141560.6339002305</v>
+        <v>24986.65407868911</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25184.94575781317</v>
+        <v>586345.9174561929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>586345.9174561929</v>
+        <v>141632.3578223591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141632.3578223591</v>
+        <v>25184.94575781317</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25442.02045690565</v>
+        <v>589236.5434545362</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>589236.5434545362</v>
+        <v>141457.0223765366</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141457.0223765366</v>
+        <v>25442.02045690565</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26348.45890817064</v>
+        <v>592422.9260767912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>592422.9260767912</v>
+        <v>141709.6635465219</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141709.6635465219</v>
+        <v>26348.45890817064</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6963.290557249624</v>
+        <v>121377.1923488127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>121377.1923488127</v>
+        <v>28934.4994243884</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28934.4994243884</v>
+        <v>6963.290557249624</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8687.772734892787</v>
+        <v>125871.1848638235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>125871.1848638235</v>
+        <v>29449.86280290084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29449.86280290084</v>
+        <v>8687.772734892787</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10350.90097632498</v>
+        <v>131620.6378475875</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131620.6378475875</v>
+        <v>29963.21101190569</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29963.21101190569</v>
+        <v>10350.90097632498</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>902.5247365629416</v>
+        <v>1014.85575695881</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1014.85575695881</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8022.234747374016</v>
+        <v>902.5247365629416</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10077.70870374318</v>
+        <v>139190.6246828912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139190.6246828912</v>
+        <v>29694.47723719128</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29694.47723719128</v>
+        <v>10077.70870374318</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9287.763455827022</v>
+        <v>149235.6214255523</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149235.6214255523</v>
+        <v>28673.97239123331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28673.97239123331</v>
+        <v>9287.763455827022</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6266.429552206188</v>
+        <v>72642.49801752716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>72642.49801752716</v>
+        <v>12290.17605020246</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12290.17605020246</v>
+        <v>6266.429552206188</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5699.75764371478</v>
+        <v>89647.54574177042</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>89647.54574177042</v>
+        <v>12883.25060522556</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12883.25060522556</v>
+        <v>5699.75764371478</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5001.048496641102</v>
+        <v>110949.331031234</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>110949.331031234</v>
+        <v>15781.85113298171</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15781.85113298171</v>
+        <v>5001.048496641102</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4465.87702229456</v>
+        <v>136812.1160453279</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>136812.1160453279</v>
+        <v>22768.91111857351</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22768.91111857351</v>
+        <v>4465.87702229456</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5747.033652482147</v>
+        <v>167183.6025294689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167183.6025294689</v>
+        <v>35697.54553047218</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35697.54553047218</v>
+        <v>5747.033652482147</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8847.726078377746</v>
+        <v>201630.3936301423</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>201630.3936301423</v>
+        <v>53250.64276000182</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>53250.64276000182</v>
+        <v>8847.726078377746</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12274.01566941239</v>
+        <v>239298.2212604471</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>239298.2212604471</v>
+        <v>72577.94889918412</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>72577.94889918412</v>
+        <v>12274.01566941239</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17226.08148426196</v>
+        <v>278903.725575991</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>278903.725575991</v>
+        <v>100044.6478135695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>100044.6478135695</v>
+        <v>17226.08148426196</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>98.7726955543053</v>
+        <v>2750.413800707392</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2750.413800707392</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9659.263315046461</v>
+        <v>98.7726955543053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23638.01097087428</v>
+        <v>318767.3592860978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>318767.3592860978</v>
+        <v>135086.102425454</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>135086.102425454</v>
+        <v>23638.01097087428</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26838.29972170718</v>
+        <v>356898.4703804636</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>356898.4703804636</v>
+        <v>152909.4578083614</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>152909.4578083614</v>
+        <v>26838.29972170718</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26987.89775535394</v>
+        <v>391139.5644423421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>391139.5644423421</v>
+        <v>154071.8929771094</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154071.8929771094</v>
+        <v>26987.89775535394</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26776.49756099237</v>
+        <v>419365.352551816</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>419365.352551816</v>
+        <v>152744.9458818475</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>152744.9458818475</v>
+        <v>26776.49756099237</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26230.16135891498</v>
+        <v>439715.8607739275</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>439715.8607739275</v>
+        <v>149202.5240683348</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>149202.5240683348</v>
+        <v>26230.16135891498</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25408.58204348618</v>
+        <v>450827.5410698755</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>450827.5410698755</v>
+        <v>143899.5514835084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143899.5514835084</v>
+        <v>25408.58204348618</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24890.27471273078</v>
+        <v>512582.9639992397</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>512582.9639992397</v>
+        <v>139858.5955925777</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139858.5955925777</v>
+        <v>24890.27471273078</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24287.70687391894</v>
+        <v>521092.3245534291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>521092.3245534291</v>
+        <v>134582.5203450969</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>134582.5203450969</v>
+        <v>24287.70687391894</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25934.51694813551</v>
+        <v>503531.1786037898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>503531.1786037898</v>
+        <v>139988.0910751389</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139988.0910751389</v>
+        <v>25934.51694813551</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21507.97222123505</v>
+        <v>478599.9918546649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>478599.9918546649</v>
+        <v>110598.1647859071</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>110598.1647859071</v>
+        <v>21507.97222123505</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.273736754432321E-13</v>
+        <v>3787.809826203911</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3787.809826203911</v>
+        <v>9213.925933867096</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9213.925933867096</v>
+        <v>2.273736754432321E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15473.80223760358</v>
+        <v>448372.593458714</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>448372.593458714</v>
+        <v>71079.38355603535</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>71079.38355603535</v>
+        <v>15473.80223760358</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12909.80493581458</v>
+        <v>415230.208985433</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>415230.208985433</v>
+        <v>50728.24337991886</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50728.24337991886</v>
+        <v>12909.80493581458</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12789.24365807266</v>
+        <v>372861.0867980467</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>372861.0867980467</v>
+        <v>46214.90172858839</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46214.90172858839</v>
+        <v>12789.24365807266</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12402.41365558456</v>
+        <v>341277.4981274419</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>341277.4981274419</v>
+        <v>44068.63446712191</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44068.63446712191</v>
+        <v>12402.41365558456</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11210.49452650873</v>
+        <v>313845.3667278728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>313845.3667278728</v>
+        <v>39797.37435007049</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39797.37435007049</v>
+        <v>11210.49452650873</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9784.95427167922</v>
+        <v>292324.8492918015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>292324.8492918015</v>
+        <v>35014.08999112342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35014.08999112342</v>
+        <v>9784.95427167922</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8915.165702761151</v>
+        <v>277928.8755821222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>277928.8755821222</v>
+        <v>34894.40936457342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34894.40936457342</v>
+        <v>8915.165702761151</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8362.169514421606</v>
+        <v>262548.0593112549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>262548.0593112549</v>
+        <v>38291.28989750706</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38291.28989750706</v>
+        <v>8362.169514421606</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9029.249791137292</v>
+        <v>263460.3181644147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>263460.3181644147</v>
+        <v>48347.05455450667</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48347.05455450667</v>
+        <v>9029.249791137292</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10952.722048108</v>
+        <v>271327.3278334243</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>271327.3278334243</v>
+        <v>63081.16127459612</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>63081.16127459612</v>
+        <v>10952.722048108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>419.367027715833</v>
+        <v>3642.116665421448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3642.116665421448</v>
+        <v>10935.034553782</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10935.034553782</v>
+        <v>419.367027715833</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14121.10311901162</v>
+        <v>285075.7073380966</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>285075.7073380966</v>
+        <v>82035.0518861392</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>82035.0518861392</v>
+        <v>14121.10311901162</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18137.27882301272</v>
+        <v>303402.0228882758</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>303402.0228882758</v>
+        <v>104514.6172659367</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>104514.6172659367</v>
+        <v>18137.27882301272</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22302.30011599296</v>
+        <v>318405.5023203604</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>318405.5023203604</v>
+        <v>127606.4735306639</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>127606.4735306639</v>
+        <v>22302.30011599296</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26331.7077622193</v>
+        <v>341804.5923203537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>341804.5923203537</v>
+        <v>149814.9597951646</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>149814.9597951646</v>
+        <v>26331.7077622193</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28656.18947016686</v>
+        <v>365817.2202614974</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>365817.2202614974</v>
+        <v>162661.3216764585</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>162661.3216764585</v>
+        <v>28656.18947016686</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29206.24167760857</v>
+        <v>389290.4936611718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>389290.4936611718</v>
+        <v>165661.3720574458</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>165661.3720574458</v>
+        <v>29206.24167760857</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28926.63481255859</v>
+        <v>411184.098966781</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>411184.098966781</v>
+        <v>163779.1795718567</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>163779.1795718567</v>
+        <v>28926.63481255859</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28170.87100816896</v>
+        <v>426035.5992978681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>426035.5992978681</v>
+        <v>158894.3982779044</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>158894.3982779044</v>
+        <v>28170.87100816896</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27545.03745403967</v>
+        <v>442195.5602846313</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>442195.5602846313</v>
+        <v>154234.4761368642</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154234.4761368642</v>
+        <v>27545.03745403967</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26938.04259616678</v>
+        <v>454533.8132314272</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>454533.8132314272</v>
+        <v>148996.0982598071</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>148996.0982598071</v>
+        <v>26938.04259616678</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>387.7656110908511</v>
+        <v>6220.242431862596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6220.242431862596</v>
+        <v>11512.26696473561</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11512.26696473561</v>
+        <v>387.7656110908511</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26184.11529742222</v>
+        <v>462670.5873308983</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>462670.5873308983</v>
+        <v>141947.3391012955</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141947.3391012955</v>
+        <v>26184.11529742222</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24621.07588221098</v>
+        <v>466440.056332279</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>466440.056332279</v>
+        <v>129250.3584697451</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>129250.3584697451</v>
+        <v>24621.07588221098</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21228.39087967481</v>
+        <v>461461.257184675</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>461461.257184675</v>
+        <v>105564.4723549546</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>105564.4723549546</v>
+        <v>21228.39087967481</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17601.11062653887</v>
+        <v>456918.8378416356</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>456918.8378416356</v>
+        <v>80376.79465349112</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>80376.79465349112</v>
+        <v>17601.11062653887</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15386.19420139852</v>
+        <v>448905.8281451631</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>448905.8281451631</v>
+        <v>63962.12443513377</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>63962.12443513377</v>
+        <v>15386.19420139852</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14466.22424627165</v>
+        <v>438178.873026723</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>438178.873026723</v>
+        <v>56863.86405245913</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>56863.86405245913</v>
+        <v>14466.22424627165</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13742.73205103446</v>
+        <v>425676.9507206418</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>425676.9507206418</v>
+        <v>53423.23000371223</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>53423.23000371223</v>
+        <v>13742.73205103446</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12551.24688180047</v>
+        <v>407793.7504629418</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407793.7504629418</v>
+        <v>49433.22287431825</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49433.22287431825</v>
+        <v>12551.24688180047</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11617.9746457109</v>
+        <v>394949.837286992</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>394949.837286992</v>
+        <v>48169.9807307953</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48169.9807307953</v>
+        <v>11617.9746457109</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11141.55647128617</v>
+        <v>383510.7438149974</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>383510.7438149974</v>
+        <v>50463.79730393086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50463.79730393086</v>
+        <v>11141.55647128617</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>483.9729262989381</v>
+        <v>17711.86389947938</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17711.86389947938</v>
+        <v>9096.644441685086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9096.644441685086</v>
+        <v>483.9729262989381</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11418.20663175767</v>
+        <v>374351.9638484791</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>374351.9638484791</v>
+        <v>57394.86705885641</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>57394.86705885641</v>
+        <v>11418.20663175767</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12708.8875604872</v>
+        <v>368122.5379138235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>368122.5379138235</v>
+        <v>69264.01117334282</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>69264.01117334282</v>
+        <v>12708.8875604872</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14840.23809335305</v>
+        <v>359943.7687719017</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>359943.7687719017</v>
+        <v>84174.28464363469</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>84174.28464363469</v>
+        <v>14840.23809335305</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18100.06568132777</v>
+        <v>360441.6495975908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>360441.6495975908</v>
+        <v>103608.648331631</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103608.648331631</v>
+        <v>18100.06568132777</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21810.96339433634</v>
+        <v>364207.4681157358</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>364207.4681157358</v>
+        <v>124544.227640151</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>124544.227640151</v>
+        <v>21810.96339433634</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25401.92115808249</v>
+        <v>370878.0737635735</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>370878.0737635735</v>
+        <v>144458.6730060177</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>144458.6730060177</v>
+        <v>25401.92115808249</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28274.23486704979</v>
+        <v>379926.0882313997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>379926.0882313997</v>
+        <v>160287.1751069427</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>160287.1751069427</v>
+        <v>28274.23486704979</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29596.75225888792</v>
+        <v>383524.2835842334</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>383524.2835842334</v>
+        <v>167511.0582056735</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>167511.0582056735</v>
+        <v>29596.75225888792</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30055.0134539915</v>
+        <v>395354.4615606535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>395354.4615606535</v>
+        <v>169746.0456683771</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>169746.0456683771</v>
+        <v>30055.0134539915</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29760.62080265174</v>
+        <v>407521.6737693101</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407521.6737693101</v>
+        <v>167498.5855731866</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>167498.5855731866</v>
+        <v>29760.62080265174</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -146,10 +146,10 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Onshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Offshore wind plants</t>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21984.72365631576</v>
+        <v>15239.13137419848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15239.13137419848</v>
+        <v>21984.72365631576</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>419354.0391213447</v>
+        <v>162936.9369000304</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>162936.9369000304</v>
+        <v>419354.0391213447</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430250.0946235452</v>
+        <v>157041.8062301753</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>157041.8062301753</v>
+        <v>430250.0946235452</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48177.28458366616</v>
+        <v>11811.55693452757</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11811.55693452757</v>
+        <v>48177.28458366616</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>69131.58273537549</v>
+        <v>12029.30840719993</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12029.30840719993</v>
+        <v>69131.58273537549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43932.50790387452</v>
+        <v>13966.76515057057</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13966.76515057057</v>
+        <v>43932.50790387452</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21192.45085941534</v>
+        <v>11099.09798718154</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11099.09798718154</v>
+        <v>21192.45085941534</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12926.74985373035</v>
+        <v>13554.08628325319</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13554.08628325319</v>
+        <v>12926.74985373035</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14557.29774203591</v>
+        <v>14187.38505370161</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14187.38505370161</v>
+        <v>14557.29774203591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10329.99242629201</v>
+        <v>14634.55572365105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14634.55572365105</v>
+        <v>10329.99242629201</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8279.197907197027</v>
+        <v>14484.73829713441</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14484.73829713441</v>
+        <v>8279.197907197027</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10356.31885699846</v>
+        <v>9136.285553353286</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9136.285553353286</v>
+        <v>10356.31885699846</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>538.2258677132877</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10357.24975926156</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19999.87649926855</v>
+        <v>11745.6025597493</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11745.6025597493</v>
+        <v>19999.87649926855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17354.23656342606</v>
+        <v>9344.123591222073</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9344.123591222073</v>
+        <v>17354.23656342606</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21309.41386984718</v>
+        <v>12747.26059739699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12747.26059739699</v>
+        <v>21309.41386984718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30150.67132322237</v>
+        <v>19801.20407913387</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19801.20407913387</v>
+        <v>30150.67132322237</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>187891.4591139147</v>
+        <v>49597.11036389857</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49597.11036389857</v>
+        <v>187891.4591139147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>188807.5359805163</v>
+        <v>53269.95820755861</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>53269.95820755861</v>
+        <v>188807.5359805163</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>189938.2901703046</v>
+        <v>54892.53103272821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54892.53103272821</v>
+        <v>189938.2901703046</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>597708.1942060061</v>
+        <v>153473.9239507864</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153473.9239507864</v>
+        <v>597708.1942060061</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>599306.9422862022</v>
+        <v>153450.2014303764</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153450.2014303764</v>
+        <v>599306.9422862022</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>601139.1315721008</v>
+        <v>154019.9584618424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154019.9584618424</v>
+        <v>601139.1315721008</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430.3168678263535</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12090.72719861821</v>
+        <v>430.3168678263535</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>603189.4226990808</v>
+        <v>154657.2861687898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154657.2861687898</v>
+        <v>603189.4226990808</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>605433.66139499</v>
+        <v>155138.2877179334</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155138.2877179334</v>
+        <v>605433.66139499</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>581086.6916768448</v>
+        <v>140640.0141605532</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140640.0141605532</v>
+        <v>581086.6916768448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>583643.236104914</v>
+        <v>141560.6339002305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141560.6339002305</v>
+        <v>583643.236104914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>586345.9174561929</v>
+        <v>141632.3578223591</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141632.3578223591</v>
+        <v>586345.9174561929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>589236.5434545362</v>
+        <v>141457.0223765366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141457.0223765366</v>
+        <v>589236.5434545362</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>592422.9260767912</v>
+        <v>141709.6635465219</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141709.6635465219</v>
+        <v>592422.9260767912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>121377.1923488127</v>
+        <v>28934.4994243884</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28934.4994243884</v>
+        <v>121377.1923488127</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>125871.1848638235</v>
+        <v>29449.86280290084</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29449.86280290084</v>
+        <v>125871.1848638235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131620.6378475875</v>
+        <v>29963.21101190569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29963.21101190569</v>
+        <v>131620.6378475875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1014.85575695881</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8022.234747374016</v>
+        <v>1014.85575695881</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139190.6246828912</v>
+        <v>29694.47723719128</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29694.47723719128</v>
+        <v>139190.6246828912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>149235.6214255523</v>
+        <v>28673.97239123331</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28673.97239123331</v>
+        <v>149235.6214255523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>72642.49801752716</v>
+        <v>12290.17605020246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12290.17605020246</v>
+        <v>72642.49801752716</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>89647.54574177042</v>
+        <v>12883.25060522556</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12883.25060522556</v>
+        <v>89647.54574177042</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>110949.331031234</v>
+        <v>15781.85113298171</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15781.85113298171</v>
+        <v>110949.331031234</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>136812.1160453279</v>
+        <v>22768.91111857351</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22768.91111857351</v>
+        <v>136812.1160453279</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>167183.6025294689</v>
+        <v>35697.54553047218</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35697.54553047218</v>
+        <v>167183.6025294689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>201630.3936301423</v>
+        <v>53250.64276000182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>53250.64276000182</v>
+        <v>201630.3936301423</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>239298.2212604471</v>
+        <v>72577.94889918412</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>72577.94889918412</v>
+        <v>239298.2212604471</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>278903.725575991</v>
+        <v>100044.6478135695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>100044.6478135695</v>
+        <v>278903.725575991</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2750.413800707392</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9659.263315046461</v>
+        <v>2750.413800707392</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>318767.3592860978</v>
+        <v>135086.102425454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>135086.102425454</v>
+        <v>318767.3592860978</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>356898.4703804636</v>
+        <v>152909.4578083614</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>152909.4578083614</v>
+        <v>356898.4703804636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>391139.5644423421</v>
+        <v>154071.8929771094</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154071.8929771094</v>
+        <v>391139.5644423421</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>419365.352551816</v>
+        <v>152744.9458818475</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>152744.9458818475</v>
+        <v>419365.352551816</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>439715.8607739275</v>
+        <v>149202.5240683348</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149202.5240683348</v>
+        <v>439715.8607739275</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>450827.5410698755</v>
+        <v>143899.5514835084</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143899.5514835084</v>
+        <v>450827.5410698755</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>512582.9639992397</v>
+        <v>139858.5955925777</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139858.5955925777</v>
+        <v>512582.9639992397</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>521092.3245534291</v>
+        <v>134582.5203450969</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>134582.5203450969</v>
+        <v>521092.3245534291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>503531.1786037898</v>
+        <v>139988.0910751389</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139988.0910751389</v>
+        <v>503531.1786037898</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>478599.9918546649</v>
+        <v>110598.1647859071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>110598.1647859071</v>
+        <v>478599.9918546649</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3787.809826203911</v>
+        <v>9213.925933867096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9213.925933867096</v>
+        <v>3787.809826203911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>448372.593458714</v>
+        <v>71079.38355603535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>71079.38355603535</v>
+        <v>448372.593458714</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>415230.208985433</v>
+        <v>50728.24337991886</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50728.24337991886</v>
+        <v>415230.208985433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>372861.0867980467</v>
+        <v>46214.90172858839</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46214.90172858839</v>
+        <v>372861.0867980467</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>341277.4981274419</v>
+        <v>44068.63446712191</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44068.63446712191</v>
+        <v>341277.4981274419</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>313845.3667278728</v>
+        <v>39797.37435007049</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39797.37435007049</v>
+        <v>313845.3667278728</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>292324.8492918015</v>
+        <v>35014.08999112342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35014.08999112342</v>
+        <v>292324.8492918015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>277928.8755821222</v>
+        <v>34894.40936457342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34894.40936457342</v>
+        <v>277928.8755821222</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>262548.0593112549</v>
+        <v>38291.28989750706</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38291.28989750706</v>
+        <v>262548.0593112549</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>263460.3181644147</v>
+        <v>48347.05455450667</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48347.05455450667</v>
+        <v>263460.3181644147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>271327.3278334243</v>
+        <v>63081.16127459612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>63081.16127459612</v>
+        <v>271327.3278334243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3642.116665421448</v>
+        <v>10935.034553782</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10935.034553782</v>
+        <v>3642.116665421448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>285075.7073380966</v>
+        <v>82035.0518861392</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>82035.0518861392</v>
+        <v>285075.7073380966</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>303402.0228882758</v>
+        <v>104514.6172659367</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>104514.6172659367</v>
+        <v>303402.0228882758</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>318405.5023203604</v>
+        <v>127606.4735306639</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>127606.4735306639</v>
+        <v>318405.5023203604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>341804.5923203537</v>
+        <v>149814.9597951646</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149814.9597951646</v>
+        <v>341804.5923203537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>365817.2202614974</v>
+        <v>162661.3216764585</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>162661.3216764585</v>
+        <v>365817.2202614974</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>389290.4936611718</v>
+        <v>165661.3720574458</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>165661.3720574458</v>
+        <v>389290.4936611718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>411184.098966781</v>
+        <v>163779.1795718567</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>163779.1795718567</v>
+        <v>411184.098966781</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>426035.5992978681</v>
+        <v>158894.3982779044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>158894.3982779044</v>
+        <v>426035.5992978681</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>442195.5602846313</v>
+        <v>154234.4761368642</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154234.4761368642</v>
+        <v>442195.5602846313</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>454533.8132314272</v>
+        <v>148996.0982598071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>148996.0982598071</v>
+        <v>454533.8132314272</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6220.242431862596</v>
+        <v>11512.26696473561</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11512.26696473561</v>
+        <v>6220.242431862596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>462670.5873308983</v>
+        <v>141947.3391012955</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141947.3391012955</v>
+        <v>462670.5873308983</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>466440.056332279</v>
+        <v>129250.3584697451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>129250.3584697451</v>
+        <v>466440.056332279</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>461461.257184675</v>
+        <v>105564.4723549546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>105564.4723549546</v>
+        <v>461461.257184675</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>456918.8378416356</v>
+        <v>80376.79465349112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>80376.79465349112</v>
+        <v>456918.8378416356</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>448905.8281451631</v>
+        <v>63962.12443513377</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>63962.12443513377</v>
+        <v>448905.8281451631</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>438178.873026723</v>
+        <v>56863.86405245913</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56863.86405245913</v>
+        <v>438178.873026723</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>425676.9507206418</v>
+        <v>53423.23000371223</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>53423.23000371223</v>
+        <v>425676.9507206418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>407793.7504629418</v>
+        <v>49433.22287431825</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49433.22287431825</v>
+        <v>407793.7504629418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>394949.837286992</v>
+        <v>48169.9807307953</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48169.9807307953</v>
+        <v>394949.837286992</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>383510.7438149974</v>
+        <v>50463.79730393086</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50463.79730393086</v>
+        <v>383510.7438149974</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17711.86389947938</v>
+        <v>9096.644441685086</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9096.644441685086</v>
+        <v>17711.86389947938</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>374351.9638484791</v>
+        <v>57394.86705885641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>57394.86705885641</v>
+        <v>374351.9638484791</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>368122.5379138235</v>
+        <v>69264.01117334282</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>69264.01117334282</v>
+        <v>368122.5379138235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>359943.7687719017</v>
+        <v>84174.28464363469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>84174.28464363469</v>
+        <v>359943.7687719017</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>360441.6495975908</v>
+        <v>103608.648331631</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103608.648331631</v>
+        <v>360441.6495975908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>364207.4681157358</v>
+        <v>124544.227640151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124544.227640151</v>
+        <v>364207.4681157358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>370878.0737635735</v>
+        <v>144458.6730060177</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144458.6730060177</v>
+        <v>370878.0737635735</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>379926.0882313997</v>
+        <v>160287.1751069427</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>160287.1751069427</v>
+        <v>379926.0882313997</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>383524.2835842334</v>
+        <v>167511.0582056735</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167511.0582056735</v>
+        <v>383524.2835842334</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>395354.4615606535</v>
+        <v>169746.0456683771</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>169746.0456683771</v>
+        <v>395354.4615606535</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>407521.6737693101</v>
+        <v>167498.5855731866</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167498.5855731866</v>
+        <v>407521.6737693101</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Avg.xlsx
+++ b/Final Demand/AIC/AIC_Avg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Final Demand/AIC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3FF88EAA2FE35FA2CD552351E72C4530E7F674CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F968B0B9-ECB1-4EE6-91E5-02AD735AD74D}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_3FF88EAA2FE35FA2CD552351E72C4530E7F674CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B135148-3487-4592-B67A-ED69242DA6FF}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="15020" firstSheet="30" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="89" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,20 @@
     <sheet name="2099" sheetId="100" r:id="rId100"/>
     <sheet name="2100" sheetId="101" r:id="rId101"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1518,9 +1531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6400-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
@@ -6451,13 +6469,15 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6474,7 +6494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6491,7 +6511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6508,7 +6528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6519,7 +6539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6542,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
@@ -6560,8 +6580,12 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <f>D6+E9+F12+G15</f>
+        <v>1206403.8508760442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
@@ -6579,8 +6603,12 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <f>D5+E8+F11+G14</f>
+        <v>61749.538970562542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -6602,8 +6630,12 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <f>D7+E10+F13+G16</f>
+        <v>241160.72194593522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -6622,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -6641,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -6664,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
@@ -6683,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
@@ -6702,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -6725,7 +6757,7 @@
         <v>31363.78886182066</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -6744,7 +6776,7 @@
         <v>328485.47882689442</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -13033,7 +13065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
